--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.100000000000005</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-49.99999999999956</v>
+      </c>
       <c r="L12" t="n">
         <v>27.25</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.200000000000006</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333294</v>
+      </c>
       <c r="L13" t="n">
         <v>27.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.300000000000008</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333294</v>
+      </c>
       <c r="L14" t="n">
         <v>27.19</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.500000000000007</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>27.19</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.800000000000008</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-19.99999999999986</v>
+      </c>
       <c r="L16" t="n">
         <v>27.16</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.800000000000008</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>27.14</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.000000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>27.13</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.100000000000005</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-9.090909090908914</v>
+      </c>
       <c r="L19" t="n">
         <v>27.12</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.100000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-9.090909090908914</v>
+      </c>
       <c r="L20" t="n">
         <v>27.11000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.200000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-9.090909090909207</v>
+      </c>
       <c r="L21" t="n">
         <v>27.09000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.200000000000006</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>27.08000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K23" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>27.09000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.882352941176324</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L24" t="n">
         <v>27.09000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K25" t="n">
-        <v>-12.49999999999992</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L25" t="n">
         <v>27.07000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K26" t="n">
-        <v>-12.49999999999992</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L26" t="n">
         <v>27.08000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>-6.666666666666761</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L28" t="n">
         <v>27.10000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>2.500000000000004</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>27.10000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>2.500000000000004</v>
       </c>
       <c r="K30" t="n">
-        <v>-6.66666666666654</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L30" t="n">
         <v>27.10000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L31" t="n">
         <v>27.12000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>12.49999999999997</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L32" t="n">
         <v>27.15000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>12.49999999999997</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L33" t="n">
         <v>27.16000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>12.49999999999997</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>27.18000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.666666666666761</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L35" t="n">
         <v>27.19</v>
@@ -2064,7 +2086,7 @@
         <v>3.100000000000009</v>
       </c>
       <c r="K36" t="n">
-        <v>23.07692307692312</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L36" t="n">
         <v>27.21</v>
@@ -2115,7 +2137,7 @@
         <v>3.20000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>27.21</v>
@@ -2166,7 +2188,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>29.41176470588231</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L38" t="n">
         <v>27.26</v>
@@ -2217,7 +2239,7 @@
         <v>4.100000000000009</v>
       </c>
       <c r="K39" t="n">
-        <v>9.999999999999947</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="L39" t="n">
         <v>27.28</v>
@@ -2268,7 +2290,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571414</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="L40" t="n">
         <v>27.31</v>
@@ -2319,7 +2341,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571433</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>27.32</v>
@@ -2370,7 +2392,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K42" t="n">
-        <v>14.28571428571433</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L42" t="n">
         <v>27.32</v>
@@ -2421,7 +2443,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>27.33</v>
@@ -2472,7 +2494,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>9.999999999999982</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L44" t="n">
         <v>27.33</v>
@@ -2523,7 +2545,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>27.34</v>
@@ -2574,7 +2596,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K46" t="n">
-        <v>9.999999999999982</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L46" t="n">
         <v>27.34</v>
@@ -2625,7 +2647,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L47" t="n">
         <v>27.34</v>
@@ -2676,7 +2698,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L48" t="n">
         <v>27.29</v>
@@ -2727,7 +2749,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K49" t="n">
-        <v>5.263157894736723</v>
+        <v>-100</v>
       </c>
       <c r="L49" t="n">
         <v>27.28</v>
@@ -2778,7 +2800,7 @@
         <v>4.800000000000008</v>
       </c>
       <c r="K50" t="n">
-        <v>21.73913043478257</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L50" t="n">
         <v>27.3</v>
@@ -2829,7 +2851,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>21.73913043478257</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L51" t="n">
         <v>27.34</v>
@@ -2931,7 +2953,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L53" t="n">
         <v>27.33</v>
@@ -3033,7 +3055,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K55" t="n">
-        <v>4.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>27.33</v>
@@ -3084,7 +3106,7 @@
         <v>5.800000000000008</v>
       </c>
       <c r="K56" t="n">
-        <v>11.11111111111114</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L56" t="n">
         <v>27.36</v>
@@ -3135,7 +3157,7 @@
         <v>6.100000000000009</v>
       </c>
       <c r="K57" t="n">
-        <v>3.448275862069016</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L57" t="n">
         <v>27.37</v>
@@ -3186,7 +3208,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>27.37</v>
@@ -3237,7 +3259,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>-4.761904761904826</v>
+        <v>-28.57142857142868</v>
       </c>
       <c r="L59" t="n">
         <v>27.37</v>
@@ -3288,7 +3310,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K60" t="n">
-        <v>-4.761904761904649</v>
+        <v>-28.57142857142835</v>
       </c>
       <c r="L60" t="n">
         <v>27.34</v>
@@ -3339,7 +3361,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K61" t="n">
-        <v>-4.76190476190481</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L61" t="n">
         <v>27.29</v>
@@ -3390,7 +3412,7 @@
         <v>6.800000000000015</v>
       </c>
       <c r="K62" t="n">
-        <v>11.99999999999998</v>
+        <v>28.57142857142854</v>
       </c>
       <c r="L62" t="n">
         <v>27.32</v>
@@ -3441,7 +3463,7 @@
         <v>6.900000000000013</v>
       </c>
       <c r="K63" t="n">
-        <v>15.38461538461528</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L63" t="n">
         <v>27.37</v>
@@ -3492,7 +3514,7 @@
         <v>6.900000000000013</v>
       </c>
       <c r="K64" t="n">
-        <v>15.38461538461528</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L64" t="n">
         <v>27.41</v>
@@ -3543,7 +3565,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K65" t="n">
-        <v>18.51851851851845</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L65" t="n">
         <v>27.46</v>
@@ -3594,7 +3616,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K66" t="n">
-        <v>18.51851851851845</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L66" t="n">
         <v>27.48</v>
@@ -3645,7 +3667,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K67" t="n">
-        <v>23.07692307692306</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L67" t="n">
         <v>27.53</v>
@@ -3696,7 +3718,7 @@
         <v>7.100000000000016</v>
       </c>
       <c r="K68" t="n">
-        <v>18.51851851851845</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L68" t="n">
         <v>27.58</v>
@@ -3747,7 +3769,7 @@
         <v>7.100000000000016</v>
       </c>
       <c r="K69" t="n">
-        <v>18.51851851851845</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L69" t="n">
         <v>27.63</v>
@@ -3798,7 +3820,7 @@
         <v>7.300000000000015</v>
       </c>
       <c r="K70" t="n">
-        <v>11.99999999999985</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L70" t="n">
         <v>27.69</v>
@@ -3849,7 +3871,7 @@
         <v>7.400000000000016</v>
       </c>
       <c r="K71" t="n">
-        <v>11.99999999999998</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L71" t="n">
         <v>27.77</v>
@@ -3900,7 +3922,7 @@
         <v>7.400000000000016</v>
       </c>
       <c r="K72" t="n">
-        <v>33.33333333333311</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L72" t="n">
         <v>27.81</v>
@@ -3951,7 +3973,7 @@
         <v>7.400000000000016</v>
       </c>
       <c r="K73" t="n">
-        <v>39.99999999999982</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L73" t="n">
         <v>27.84</v>
@@ -4002,7 +4024,7 @@
         <v>7.700000000000017</v>
       </c>
       <c r="K74" t="n">
-        <v>45.45454545454525</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L74" t="n">
         <v>27.9</v>
@@ -4053,7 +4075,7 @@
         <v>7.900000000000016</v>
       </c>
       <c r="K75" t="n">
-        <v>33.33333333333324</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>27.93</v>
@@ -4104,7 +4126,7 @@
         <v>8.000000000000018</v>
       </c>
       <c r="K76" t="n">
-        <v>18.18181818181803</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L76" t="n">
         <v>27.95</v>
@@ -4155,7 +4177,7 @@
         <v>8.000000000000018</v>
       </c>
       <c r="K77" t="n">
-        <v>36.84210526315768</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>27.97</v>
@@ -4206,7 +4228,7 @@
         <v>8.100000000000019</v>
       </c>
       <c r="K78" t="n">
-        <v>47.36842105263146</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L78" t="n">
         <v>28.01</v>
@@ -4257,7 +4279,7 @@
         <v>8.300000000000018</v>
       </c>
       <c r="K79" t="n">
-        <v>52.38095238095224</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L79" t="n">
         <v>28.07</v>
@@ -4308,7 +4330,7 @@
         <v>8.600000000000019</v>
       </c>
       <c r="K80" t="n">
-        <v>30.43478260869551</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>28.08000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>8.600000000000019</v>
       </c>
       <c r="K81" t="n">
-        <v>36.3636363636363</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>28.08000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>8.700000000000021</v>
       </c>
       <c r="K82" t="n">
-        <v>26.31578947368413</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L82" t="n">
         <v>28.09000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>8.700000000000021</v>
       </c>
       <c r="K83" t="n">
-        <v>22.22222222222224</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L83" t="n">
         <v>28.10000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>8.800000000000022</v>
       </c>
       <c r="K84" t="n">
-        <v>15.78947368421049</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L84" t="n">
         <v>28.07000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>8.800000000000022</v>
       </c>
       <c r="K85" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>28.06000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>8.900000000000023</v>
       </c>
       <c r="K86" t="n">
-        <v>15.78947368421049</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L86" t="n">
         <v>28.07000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>9.200000000000024</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L87" t="n">
         <v>28.05000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>9.400000000000023</v>
       </c>
       <c r="K88" t="n">
-        <v>-4.347826086956414</v>
+        <v>-63.63636363636328</v>
       </c>
       <c r="L88" t="n">
         <v>28.00000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>9.700000000000021</v>
       </c>
       <c r="K89" t="n">
-        <v>7.69230769230765</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L89" t="n">
         <v>27.96000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>9.700000000000021</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L90" t="n">
         <v>27.95000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>-15.38461538461532</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L91" t="n">
         <v>27.91000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>-15.38461538461532</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L92" t="n">
         <v>27.86000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>-15.38461538461532</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>27.81000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>-30.43478260869561</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>27.77000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>-18.18181818181829</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L95" t="n">
         <v>27.74000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>-14.28571428571433</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L96" t="n">
         <v>27.70000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>-14.28571428571433</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L97" t="n">
         <v>27.69</v>
@@ -5226,7 +5248,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>-20.00000000000014</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L98" t="n">
         <v>27.7</v>
@@ -5277,7 +5299,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>-36.84210526315795</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L99" t="n">
         <v>27.67000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>27.64000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>-11.11111111111111</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L101" t="n">
         <v>27.66000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>-30.00000000000018</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L102" t="n">
         <v>27.65000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>-13.04347826086963</v>
+        <v>20</v>
       </c>
       <c r="L103" t="n">
         <v>27.67000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>-13.04347826086963</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>27.68</v>
@@ -5583,7 +5605,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-16.66666666666666</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L105" t="n">
         <v>27.67000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-30.76923076923091</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L106" t="n">
         <v>27.63000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-7.692307692307693</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L107" t="n">
         <v>27.62000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>12.00000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.692307692307819</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L108" t="n">
         <v>27.59000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>27.59000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-24.13793103448272</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L110" t="n">
         <v>27.55</v>
@@ -5889,7 +5911,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>-7.142857142857234</v>
+        <v>-4.76190476190481</v>
       </c>
       <c r="L111" t="n">
         <v>27.51</v>
@@ -5940,7 +5962,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>-10.34482758620691</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L112" t="n">
         <v>27.49</v>
@@ -5991,7 +6013,7 @@
         <v>13.00000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.666666666666761</v>
+        <v>-15.78947368421055</v>
       </c>
       <c r="L113" t="n">
         <v>27.45</v>
@@ -6042,7 +6064,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-3.225806451612947</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L114" t="n">
         <v>27.43</v>
@@ -6093,7 +6115,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-6.666666666666635</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="L115" t="n">
         <v>27.42</v>
@@ -6144,7 +6166,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>-15.15151515151513</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L116" t="n">
         <v>27.41</v>
@@ -6195,7 +6217,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-15.15151515151513</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L117" t="n">
         <v>27.36999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-15.15151515151513</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L118" t="n">
         <v>27.34999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>-12.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>27.30999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L120" t="n">
         <v>27.31999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-16.12903225806447</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>27.31</v>
@@ -6450,7 +6472,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>-7.142857142857098</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L122" t="n">
         <v>27.31</v>
@@ -6501,7 +6523,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>27.32</v>
@@ -6552,7 +6574,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>27.32</v>
@@ -6603,7 +6625,7 @@
         <v>13.90000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>3.703703703703616</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>27.34</v>
@@ -6654,7 +6676,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>12.00000000000001</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L126" t="n">
         <v>27.38</v>
@@ -6705,7 +6727,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L127" t="n">
         <v>27.42000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>4.761904761904826</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L128" t="n">
         <v>27.45000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>-10.00000000000014</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L129" t="n">
         <v>27.47000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>14.30000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>27.47000000000001</v>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>26.88833333333335</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.2</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>26.89500000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>26.89666666666669</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +579,18 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +620,18 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +663,16 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +702,18 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +745,16 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.000000000000007</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,18 +786,16 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.000000000000007</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +827,16 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.000000000000007</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +863,23 @@
         <v>26.93000000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.100000000000005</v>
+        <v>27.3</v>
       </c>
       <c r="K12" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L12" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +906,23 @@
         <v>26.93500000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.200000000000006</v>
+        <v>27.1</v>
       </c>
       <c r="K13" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L13" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +949,23 @@
         <v>26.94166666666668</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.300000000000008</v>
+        <v>27.1</v>
       </c>
       <c r="K14" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L14" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +992,23 @@
         <v>26.95333333333335</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.500000000000007</v>
+        <v>27.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1035,23 @@
         <v>26.96000000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.800000000000008</v>
+        <v>27.1</v>
       </c>
       <c r="K16" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L16" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1078,23 @@
         <v>26.96666666666669</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.800000000000008</v>
+        <v>27</v>
       </c>
       <c r="K17" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1121,23 @@
         <v>26.97500000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.000000000000007</v>
+        <v>27.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1164,23 @@
         <v>26.98166666666669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.100000000000005</v>
+        <v>27.1</v>
       </c>
       <c r="K19" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L19" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1207,23 @@
         <v>26.98833333333335</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.100000000000005</v>
+        <v>27</v>
       </c>
       <c r="K20" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L20" t="n">
-        <v>27.11000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1250,23 @@
         <v>26.99333333333335</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.200000000000006</v>
+        <v>27.1</v>
       </c>
       <c r="K21" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L21" t="n">
-        <v>27.09000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>27.175</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1293,23 @@
         <v>27.00000000000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.200000000000006</v>
+        <v>27.1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>27.08000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>27.165</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1336,23 @@
         <v>27.00833333333335</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.300000000000008</v>
+        <v>27.1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>27.09000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>27.145</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1379,23 @@
         <v>27.01666666666669</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.300000000000008</v>
+        <v>27.1</v>
       </c>
       <c r="K24" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L24" t="n">
-        <v>27.09000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1422,23 @@
         <v>27.02333333333335</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.300000000000008</v>
+        <v>27.1</v>
       </c>
       <c r="K25" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L25" t="n">
-        <v>27.07000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1465,23 @@
         <v>27.03333333333335</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.300000000000008</v>
+        <v>27.1</v>
       </c>
       <c r="K26" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L26" t="n">
-        <v>27.08000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1508,23 @@
         <v>27.04166666666668</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.400000000000006</v>
+        <v>27.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>27.10000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1551,23 @@
         <v>27.05000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.400000000000006</v>
+        <v>27.2</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333254</v>
-      </c>
-      <c r="L28" t="n">
-        <v>27.10000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>27.11500000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1594,23 @@
         <v>27.05666666666668</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.500000000000004</v>
+        <v>27.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>27.10000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>27.11000000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1637,23 @@
         <v>27.06333333333334</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.500000000000004</v>
+        <v>27.1</v>
       </c>
       <c r="K30" t="n">
-        <v>33.33333333333412</v>
-      </c>
-      <c r="L30" t="n">
-        <v>27.10000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>27.10500000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1680,23 @@
         <v>27.07166666666668</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.600000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="K31" t="n">
-        <v>50.00000000000044</v>
-      </c>
-      <c r="L31" t="n">
-        <v>27.12000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>27.10500000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>27.15666666666668</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1723,23 @@
         <v>27.08333333333335</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.700000000000003</v>
+        <v>27.3</v>
       </c>
       <c r="K32" t="n">
-        <v>50.00000000000044</v>
-      </c>
-      <c r="L32" t="n">
-        <v>27.15000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>27.115</v>
-      </c>
-      <c r="N32" t="n">
-        <v>27.16000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1766,23 @@
         <v>27.08833333333335</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.800000000000004</v>
+        <v>27.2</v>
       </c>
       <c r="K33" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L33" t="n">
-        <v>27.16000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>27.12500000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>27.15000000000001</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1809,23 @@
         <v>27.09333333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.900000000000006</v>
+        <v>27.2</v>
       </c>
       <c r="K34" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L34" t="n">
-        <v>27.18000000000001</v>
+        <v>27.2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>27.135</v>
-      </c>
-      <c r="N34" t="n">
-        <v>27.15333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1852,23 @@
         <v>27.09833333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.000000000000007</v>
+        <v>27.3</v>
       </c>
       <c r="K35" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="L35" t="n">
-        <v>27.19</v>
+        <v>27.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>27.13000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>27.15000000000001</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1895,23 @@
         <v>27.10500000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.100000000000009</v>
+        <v>27.3</v>
       </c>
       <c r="K36" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L36" t="n">
-        <v>27.21</v>
+        <v>27.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>27.145</v>
-      </c>
-      <c r="N36" t="n">
-        <v>27.15000000000001</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1938,23 @@
         <v>27.11166666666668</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.20000000000001</v>
+        <v>27.3</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>27.21</v>
+        <v>27.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>27.15500000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>27.15000000000001</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1981,23 @@
         <v>27.12833333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.70000000000001</v>
+        <v>27.7</v>
       </c>
       <c r="K38" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L38" t="n">
-        <v>27.26</v>
+        <v>27.2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>27.18000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>27.16333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +2024,23 @@
         <v>27.13500000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.100000000000009</v>
+        <v>27.7</v>
       </c>
       <c r="K39" t="n">
-        <v>12.49999999999992</v>
-      </c>
-      <c r="L39" t="n">
-        <v>27.28</v>
+        <v>27.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="N39" t="n">
-        <v>27.16666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2070,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.200000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>12.49999999999992</v>
-      </c>
-      <c r="L40" t="n">
-        <v>27.31</v>
+        <v>27.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>27.205</v>
-      </c>
-      <c r="N40" t="n">
-        <v>27.17333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2111,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>27.32</v>
+        <v>27.2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="N41" t="n">
-        <v>27.17666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2152,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L42" t="n">
-        <v>27.32</v>
+        <v>27.2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>27.235</v>
-      </c>
-      <c r="N42" t="n">
-        <v>27.18333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2193,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>27.33</v>
+        <v>27.2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>27.24499999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>27.19333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2234,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>7.692307692307819</v>
-      </c>
-      <c r="L44" t="n">
-        <v>27.33</v>
+        <v>27.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>27.25499999999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2275,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>27.34</v>
+        <v>27.2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>27.26499999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2316,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>9.090909090909268</v>
-      </c>
-      <c r="L46" t="n">
-        <v>27.34</v>
+        <v>27.2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>27.27499999999998</v>
-      </c>
-      <c r="N46" t="n">
-        <v>27.20999999999999</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2643,26 +2359,16 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>4.400000000000006</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-71.42857142857186</v>
-      </c>
-      <c r="L47" t="n">
-        <v>27.34</v>
+        <v>27.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>27.27499999999998</v>
-      </c>
-      <c r="N47" t="n">
-        <v>27.21666666666666</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,26 +2400,16 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>4.400000000000006</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>-33.33333333333412</v>
-      </c>
-      <c r="L48" t="n">
-        <v>27.29</v>
+        <v>27.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>27.27499999999998</v>
-      </c>
-      <c r="N48" t="n">
-        <v>27.21666666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2745,26 +2441,16 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>4.400000000000006</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>27.28</v>
+        <v>27.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>27.27999999999998</v>
-      </c>
-      <c r="N49" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2480,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L50" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>27.30499999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>27.23666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2521,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L51" t="n">
-        <v>27.34</v>
+        <v>27.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>27.32999999999998</v>
-      </c>
-      <c r="N51" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2562,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>27.34</v>
+        <v>27.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>27.32999999999998</v>
-      </c>
-      <c r="N52" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,26 +2605,16 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5.400000000000006</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L53" t="n">
-        <v>27.33</v>
+        <v>27.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>27.32999999999998</v>
-      </c>
-      <c r="N53" t="n">
-        <v>27.27333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2644,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.500000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>27.33</v>
+        <v>27.2</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>27.32999999999998</v>
-      </c>
-      <c r="N54" t="n">
-        <v>27.27999999999999</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2685,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5.500000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>27.33</v>
+        <v>27.2</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>27.33499999999998</v>
-      </c>
-      <c r="N55" t="n">
-        <v>27.28666666666666</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2726,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>28.57142857142868</v>
-      </c>
-      <c r="L56" t="n">
-        <v>27.36</v>
+        <v>27.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>27.34999999999998</v>
-      </c>
-      <c r="N56" t="n">
-        <v>27.30333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2767,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.100000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>5.882352941176544</v>
-      </c>
-      <c r="L57" t="n">
-        <v>27.37</v>
+        <v>27.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>27.35499999999998</v>
-      </c>
-      <c r="N57" t="n">
-        <v>27.30666666666666</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,26 +2810,16 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.20000000000001</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>27.37</v>
+        <v>27.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>27.32999999999998</v>
-      </c>
-      <c r="N58" t="n">
-        <v>27.30666666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,26 +2851,16 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>6.20000000000001</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>-28.57142857142868</v>
-      </c>
-      <c r="L59" t="n">
-        <v>27.37</v>
+        <v>27.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>27.32499999999998</v>
-      </c>
-      <c r="N59" t="n">
-        <v>27.30999999999999</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2890,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6.300000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>-28.57142857142835</v>
-      </c>
-      <c r="L60" t="n">
-        <v>27.34</v>
+        <v>27.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>27.31999999999998</v>
-      </c>
-      <c r="N60" t="n">
-        <v>27.31666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,26 +2933,16 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>6.400000000000013</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>-9.09090909090915</v>
-      </c>
-      <c r="L61" t="n">
-        <v>27.29</v>
+        <v>27.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>27.31499999999999</v>
-      </c>
-      <c r="N61" t="n">
-        <v>27.31666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2972,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.800000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>28.57142857142854</v>
-      </c>
-      <c r="L62" t="n">
-        <v>27.32</v>
+        <v>27.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>27.32999999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>27.32666666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +3013,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>28.57142857142835</v>
-      </c>
-      <c r="L63" t="n">
-        <v>27.37</v>
+        <v>27.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>27.34999999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>27.34333333333332</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +3054,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>28.57142857142835</v>
-      </c>
-      <c r="L64" t="n">
-        <v>27.41</v>
+        <v>27.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>27.37</v>
-      </c>
-      <c r="N64" t="n">
-        <v>27.35666666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3095,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7.000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>16.66666666666652</v>
-      </c>
-      <c r="L65" t="n">
-        <v>27.46</v>
+        <v>27.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>27.395</v>
-      </c>
-      <c r="N65" t="n">
-        <v>27.37666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3136,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L66" t="n">
-        <v>27.48</v>
+        <v>27.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>27.42</v>
-      </c>
-      <c r="N66" t="n">
-        <v>27.39333333333332</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3177,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7.000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>74.99999999999977</v>
-      </c>
-      <c r="L67" t="n">
-        <v>27.53</v>
+        <v>27.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="N67" t="n">
-        <v>27.41333333333332</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3218,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.100000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L68" t="n">
-        <v>27.58</v>
+        <v>27.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>27.47499999999999</v>
-      </c>
-      <c r="N68" t="n">
-        <v>27.41333333333332</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3259,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>7.100000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L69" t="n">
-        <v>27.63</v>
+        <v>27.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>27.49999999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>27.42666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3300,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>77.77777777777752</v>
-      </c>
-      <c r="L70" t="n">
-        <v>27.69</v>
+        <v>27.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>27.51499999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>27.44333333333332</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3341,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J71" t="n">
-        <v>7.400000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L71" t="n">
-        <v>27.77</v>
+        <v>27.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>27.52999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>27.46666666666666</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3382,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J72" t="n">
-        <v>7.400000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L72" t="n">
-        <v>27.81</v>
+        <v>27.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>27.56499999999999</v>
-      </c>
-      <c r="N72" t="n">
-        <v>27.48999999999999</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,29 +3423,19 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.400000000000016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L73" t="n">
-        <v>27.84</v>
+        <v>27.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>27.60499999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>27.51333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
-        <v>1</v>
+        <v>1.024411764705883</v>
       </c>
     </row>
     <row r="74">
@@ -4018,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>7.700000000000017</v>
-      </c>
-      <c r="K74" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L74" t="n">
-        <v>27.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>27.65499999999999</v>
-      </c>
-      <c r="N74" t="n">
-        <v>27.54666666666666</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7.900000000000016</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27.93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>27.69499999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>27.57333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J76" t="n">
-        <v>8.000000000000018</v>
-      </c>
-      <c r="K76" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L76" t="n">
-        <v>27.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>27.71499999999999</v>
-      </c>
-      <c r="N76" t="n">
-        <v>27.59666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8.000000000000018</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>27.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>27.74999999999999</v>
-      </c>
-      <c r="N77" t="n">
-        <v>27.62333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J78" t="n">
-        <v>8.100000000000019</v>
-      </c>
-      <c r="K78" t="n">
-        <v>40.00000000000007</v>
-      </c>
-      <c r="L78" t="n">
-        <v>28.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>27.79499999999999</v>
-      </c>
-      <c r="N78" t="n">
-        <v>27.65333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J79" t="n">
-        <v>8.300000000000018</v>
-      </c>
-      <c r="K79" t="n">
-        <v>40.00000000000007</v>
-      </c>
-      <c r="L79" t="n">
-        <v>28.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>27.84999999999999</v>
-      </c>
-      <c r="N79" t="n">
-        <v>27.68999999999999</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J80" t="n">
-        <v>8.600000000000019</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>28.08000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>27.88499999999999</v>
-      </c>
-      <c r="N80" t="n">
-        <v>27.70333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8.600000000000019</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>28.08000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>27.92499999999999</v>
-      </c>
-      <c r="N81" t="n">
-        <v>27.71333333333332</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J82" t="n">
-        <v>8.700000000000021</v>
-      </c>
-      <c r="K82" t="n">
-        <v>7.692307692307776</v>
-      </c>
-      <c r="L82" t="n">
-        <v>28.09000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>27.94999999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>27.73999999999999</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J83" t="n">
-        <v>8.700000000000021</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L83" t="n">
-        <v>28.10000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>27.96999999999999</v>
-      </c>
-      <c r="N83" t="n">
-        <v>27.76999999999999</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J84" t="n">
-        <v>8.800000000000022</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L84" t="n">
-        <v>28.07000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>27.98499999999999</v>
-      </c>
-      <c r="N84" t="n">
-        <v>27.79333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J85" t="n">
-        <v>8.800000000000022</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>28.06000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>27.99499999999999</v>
-      </c>
-      <c r="N85" t="n">
-        <v>27.81666666666666</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J86" t="n">
-        <v>8.900000000000023</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L86" t="n">
-        <v>28.07000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>28.00999999999999</v>
-      </c>
-      <c r="N86" t="n">
-        <v>27.83333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J87" t="n">
-        <v>9.200000000000024</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-27.27272727272722</v>
-      </c>
-      <c r="L87" t="n">
-        <v>28.05000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>28.00999999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J88" t="n">
-        <v>9.400000000000023</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-63.63636363636328</v>
-      </c>
-      <c r="L88" t="n">
-        <v>28.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>28.00499999999999</v>
-      </c>
-      <c r="N88" t="n">
-        <v>27.86333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J89" t="n">
-        <v>9.700000000000021</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L89" t="n">
-        <v>27.96000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>28.01499999999999</v>
-      </c>
-      <c r="N89" t="n">
-        <v>27.88666666666666</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J90" t="n">
-        <v>9.700000000000021</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L90" t="n">
-        <v>27.95000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>28.01499999999999</v>
-      </c>
-      <c r="N90" t="n">
-        <v>27.90666666666666</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-38.46153846153855</v>
-      </c>
-      <c r="L91" t="n">
-        <v>27.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>27.99499999999999</v>
-      </c>
-      <c r="N91" t="n">
-        <v>27.91999999999999</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-38.46153846153855</v>
-      </c>
-      <c r="L92" t="n">
-        <v>27.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>27.97499999999999</v>
-      </c>
-      <c r="N92" t="n">
-        <v>27.91999999999999</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L93" t="n">
-        <v>27.81000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>27.95499999999999</v>
-      </c>
-      <c r="N93" t="n">
-        <v>27.91666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>27.77000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>27.91999999999999</v>
-      </c>
-      <c r="N94" t="n">
-        <v>27.91333333333332</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>10.10000000000002</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L95" t="n">
-        <v>27.74000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="N95" t="n">
-        <v>27.90999999999999</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>10.10000000000002</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-11.11111111111137</v>
-      </c>
-      <c r="L96" t="n">
-        <v>27.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>27.885</v>
-      </c>
-      <c r="N96" t="n">
-        <v>27.90666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>10.10000000000002</v>
-      </c>
-      <c r="K97" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L97" t="n">
-        <v>27.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="N97" t="n">
-        <v>27.90333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>10.10000000000002</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-50.00000000000044</v>
-      </c>
-      <c r="L98" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="N98" t="n">
-        <v>27.90333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-60.00000000000028</v>
-      </c>
-      <c r="L99" t="n">
-        <v>27.67000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>27.815</v>
-      </c>
-      <c r="N99" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J100" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>27.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>27.79500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J101" t="n">
-        <v>10.40000000000001</v>
-      </c>
-      <c r="K101" t="n">
-        <v>50.00000000000044</v>
-      </c>
-      <c r="L101" t="n">
-        <v>27.66000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>27.785</v>
-      </c>
-      <c r="N101" t="n">
-        <v>27.88333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10.70000000000001</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L102" t="n">
-        <v>27.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>27.755</v>
-      </c>
-      <c r="N102" t="n">
-        <v>27.86666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K103" t="n">
-        <v>20</v>
-      </c>
-      <c r="L103" t="n">
-        <v>27.67000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="N103" t="n">
-        <v>27.86</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>11.10000000000002</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>27.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>27.725</v>
-      </c>
-      <c r="N104" t="n">
-        <v>27.84</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J105" t="n">
-        <v>11.20000000000001</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L105" t="n">
-        <v>27.67000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="N105" t="n">
-        <v>27.82333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J106" t="n">
-        <v>11.50000000000001</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-28.5714285714285</v>
-      </c>
-      <c r="L106" t="n">
-        <v>27.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>27.665</v>
-      </c>
-      <c r="N106" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J107" t="n">
-        <v>11.80000000000001</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L107" t="n">
-        <v>27.62000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>27.655</v>
-      </c>
-      <c r="N107" t="n">
-        <v>27.78666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J108" t="n">
-        <v>12.00000000000002</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-11.11111111111124</v>
-      </c>
-      <c r="L108" t="n">
-        <v>27.59000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>27.645</v>
-      </c>
-      <c r="N108" t="n">
-        <v>27.76333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,1099 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J109" t="n">
-        <v>12.20000000000002</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>27.59000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>27.63</v>
-      </c>
-      <c r="N109" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C110" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E110" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>141254.2882</v>
-      </c>
-      <c r="G110" t="n">
-        <v>27.70833333333333</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>12.60000000000002</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-27.27272727272722</v>
-      </c>
-      <c r="L110" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="M110" t="n">
-        <v>27.59500000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>27.71333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3878</v>
-      </c>
-      <c r="G111" t="n">
-        <v>27.70333333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J111" t="n">
-        <v>12.80000000000002</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-4.76190476190481</v>
-      </c>
-      <c r="L111" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="M111" t="n">
-        <v>27.585</v>
-      </c>
-      <c r="N111" t="n">
-        <v>27.69333333333334</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F112" t="n">
-        <v>689.5094</v>
-      </c>
-      <c r="G112" t="n">
-        <v>27.70333333333333</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J112" t="n">
-        <v>12.90000000000002</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-26.31578947368413</v>
-      </c>
-      <c r="L112" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="M112" t="n">
-        <v>27.57</v>
-      </c>
-      <c r="N112" t="n">
-        <v>27.66666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>36675.9999</v>
-      </c>
-      <c r="G113" t="n">
-        <v>27.70666666666666</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J113" t="n">
-        <v>13.00000000000002</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-15.78947368421055</v>
-      </c>
-      <c r="L113" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="M113" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="N113" t="n">
-        <v>27.64333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>43831.4057</v>
-      </c>
-      <c r="G114" t="n">
-        <v>27.70999999999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J114" t="n">
-        <v>13.10000000000002</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-5.263157894736901</v>
-      </c>
-      <c r="L114" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="M114" t="n">
-        <v>27.555</v>
-      </c>
-      <c r="N114" t="n">
-        <v>27.62666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>16500</v>
-      </c>
-      <c r="G115" t="n">
-        <v>27.71333333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J115" t="n">
-        <v>13.10000000000002</v>
-      </c>
-      <c r="K115" t="n">
-        <v>12.49999999999992</v>
-      </c>
-      <c r="L115" t="n">
-        <v>27.42</v>
-      </c>
-      <c r="M115" t="n">
-        <v>27.54499999999999</v>
-      </c>
-      <c r="N115" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>64745.324</v>
-      </c>
-      <c r="G116" t="n">
-        <v>27.70666666666666</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>13.40000000000002</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-25.00000000000006</v>
-      </c>
-      <c r="L116" t="n">
-        <v>27.41</v>
-      </c>
-      <c r="M116" t="n">
-        <v>27.51999999999999</v>
-      </c>
-      <c r="N116" t="n">
-        <v>27.58</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>127773.7258</v>
-      </c>
-      <c r="G117" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>13.40000000000002</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L117" t="n">
-        <v>27.36999999999999</v>
-      </c>
-      <c r="M117" t="n">
-        <v>27.49499999999999</v>
-      </c>
-      <c r="N117" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>36764.6691</v>
-      </c>
-      <c r="G118" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>13.40000000000002</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L118" t="n">
-        <v>27.34999999999999</v>
-      </c>
-      <c r="M118" t="n">
-        <v>27.46999999999999</v>
-      </c>
-      <c r="N118" t="n">
-        <v>27.54666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>58031.5064</v>
-      </c>
-      <c r="G119" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>13.40000000000002</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>27.30999999999999</v>
-      </c>
-      <c r="M119" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="N119" t="n">
-        <v>27.52333333333334</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G120" t="n">
-        <v>27.705</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J120" t="n">
-        <v>13.50000000000002</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L120" t="n">
-        <v>27.31999999999999</v>
-      </c>
-      <c r="M120" t="n">
-        <v>27.43499999999999</v>
-      </c>
-      <c r="N120" t="n">
-        <v>27.50333333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>775.3209000000001</v>
-      </c>
-      <c r="G121" t="n">
-        <v>27.70666666666666</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J121" t="n">
-        <v>13.50000000000002</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="M121" t="n">
-        <v>27.40999999999999</v>
-      </c>
-      <c r="N121" t="n">
-        <v>27.49333333333334</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>91.67740000000001</v>
-      </c>
-      <c r="G122" t="n">
-        <v>27.70166666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J122" t="n">
-        <v>13.50000000000002</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-19.99999999999943</v>
-      </c>
-      <c r="L122" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="M122" t="n">
-        <v>27.39999999999999</v>
-      </c>
-      <c r="N122" t="n">
-        <v>27.48333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>12485.2928</v>
-      </c>
-      <c r="G123" t="n">
-        <v>27.69833333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J123" t="n">
-        <v>13.70000000000002</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>27.32</v>
-      </c>
-      <c r="M123" t="n">
-        <v>27.38499999999999</v>
-      </c>
-      <c r="N123" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>96605.6162</v>
-      </c>
-      <c r="G124" t="n">
-        <v>27.695</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J124" t="n">
-        <v>13.70000000000002</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>27.32</v>
-      </c>
-      <c r="M124" t="n">
-        <v>27.37499999999999</v>
-      </c>
-      <c r="N124" t="n">
-        <v>27.47666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G125" t="n">
-        <v>27.69333333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J125" t="n">
-        <v>13.90000000000002</v>
-      </c>
-      <c r="K125" t="n">
-        <v>100</v>
-      </c>
-      <c r="L125" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="M125" t="n">
-        <v>27.37999999999999</v>
-      </c>
-      <c r="N125" t="n">
-        <v>27.47666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>6940.6705</v>
-      </c>
-      <c r="G126" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J126" t="n">
-        <v>14.00000000000002</v>
-      </c>
-      <c r="K126" t="n">
-        <v>66.66666666666727</v>
-      </c>
-      <c r="L126" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="M126" t="n">
-        <v>27.39499999999999</v>
-      </c>
-      <c r="N126" t="n">
-        <v>27.47333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>15800</v>
-      </c>
-      <c r="G127" t="n">
-        <v>27.68666666666666</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J127" t="n">
-        <v>14.00000000000002</v>
-      </c>
-      <c r="K127" t="n">
-        <v>66.66666666666727</v>
-      </c>
-      <c r="L127" t="n">
-        <v>27.42000000000001</v>
-      </c>
-      <c r="M127" t="n">
-        <v>27.39499999999999</v>
-      </c>
-      <c r="N127" t="n">
-        <v>27.47</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1511.377</v>
-      </c>
-      <c r="G128" t="n">
-        <v>27.68333333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J128" t="n">
-        <v>14.10000000000002</v>
-      </c>
-      <c r="K128" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L128" t="n">
-        <v>27.45000000000001</v>
-      </c>
-      <c r="M128" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="N128" t="n">
-        <v>27.46333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>12162.6881</v>
-      </c>
-      <c r="G129" t="n">
-        <v>27.67833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J129" t="n">
-        <v>14.20000000000002</v>
-      </c>
-      <c r="K129" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="L129" t="n">
-        <v>27.47000000000001</v>
-      </c>
-      <c r="M129" t="n">
-        <v>27.38999999999999</v>
-      </c>
-      <c r="N129" t="n">
-        <v>27.45666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>831.2327</v>
-      </c>
-      <c r="G130" t="n">
-        <v>27.66833333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J130" t="n">
-        <v>14.30000000000002</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>27.47000000000001</v>
-      </c>
-      <c r="M130" t="n">
-        <v>27.39499999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>27.44666666666666</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -451,17 +451,13 @@
         <v>26.88833333333335</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>26.89500000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>26.89666666666669</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -582,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -623,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -664,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -746,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -828,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -863,22 +801,14 @@
         <v>26.93000000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,22 +836,14 @@
         <v>26.93500000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -949,22 +871,14 @@
         <v>26.94166666666668</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -992,22 +906,14 @@
         <v>26.95333333333335</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1035,22 +941,14 @@
         <v>26.96000000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1078,22 +976,14 @@
         <v>26.96666666666669</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>27</v>
-      </c>
-      <c r="K17" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1121,22 +1011,14 @@
         <v>26.97500000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1046,14 @@
         <v>26.98166666666669</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1207,22 +1081,14 @@
         <v>26.98833333333335</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>27</v>
-      </c>
-      <c r="K20" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1250,22 +1116,14 @@
         <v>26.99333333333335</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1293,22 +1151,14 @@
         <v>27.00000000000002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1336,22 +1186,14 @@
         <v>27.00833333333335</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1379,22 +1221,14 @@
         <v>27.01666666666669</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1422,22 +1256,14 @@
         <v>27.02333333333335</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1465,22 +1291,14 @@
         <v>27.03333333333335</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1508,22 +1326,14 @@
         <v>27.04166666666668</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1551,22 +1361,14 @@
         <v>27.05000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1594,22 +1396,14 @@
         <v>27.05666666666668</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1637,22 +1431,14 @@
         <v>27.06333333333334</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1466,14 @@
         <v>27.07166666666668</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1723,22 +1501,14 @@
         <v>27.08333333333335</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1766,22 +1536,14 @@
         <v>27.08833333333335</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1809,22 +1571,14 @@
         <v>27.09333333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1852,22 +1606,14 @@
         <v>27.09833333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1895,22 +1641,14 @@
         <v>27.10500000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1676,14 @@
         <v>27.11166666666668</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1981,22 +1711,14 @@
         <v>27.12833333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K38" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2024,22 +1746,14 @@
         <v>27.13500000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K39" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2073,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2114,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2155,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2196,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2278,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2319,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2360,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2401,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2442,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2483,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2524,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2565,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2606,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2647,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2688,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2729,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2770,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2811,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2852,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2893,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2934,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2975,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3016,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3057,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3098,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3139,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3180,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3344,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3423,19 +2939,13 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1.024411764705883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3464,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3499,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3744,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -4651,13 +4161,17 @@
         <v>27.70833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K108" t="n">
+        <v>27.6</v>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
@@ -4686,14 +4200,22 @@
         <v>27.71499999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>27.2</v>
       </c>
       <c r="F2" t="n">
-        <v>26905.0056</v>
+        <v>26624.1945</v>
       </c>
       <c r="G2" t="n">
-        <v>26.88833333333335</v>
+        <v>26.88666666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D3" t="n">
-        <v>28.4</v>
+        <v>27.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F3" t="n">
-        <v>272082.3069</v>
+        <v>26905.0056</v>
       </c>
       <c r="G3" t="n">
-        <v>26.89500000000002</v>
+        <v>26.88833333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C4" t="n">
         <v>27.5</v>
       </c>
-      <c r="C4" t="n">
-        <v>27.2</v>
-      </c>
       <c r="D4" t="n">
-        <v>27.5</v>
+        <v>28.4</v>
       </c>
       <c r="E4" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>8130.3447</v>
+        <v>272082.3069</v>
       </c>
       <c r="G4" t="n">
-        <v>26.89666666666669</v>
+        <v>26.89500000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C5" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D5" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E5" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F5" t="n">
-        <v>7899</v>
+        <v>8130.3447</v>
       </c>
       <c r="G5" t="n">
-        <v>26.90000000000002</v>
+        <v>26.89666666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -585,16 +585,16 @@
         <v>27.3</v>
       </c>
       <c r="F6" t="n">
-        <v>5250.4117</v>
+        <v>7899</v>
       </c>
       <c r="G6" t="n">
-        <v>26.90500000000002</v>
+        <v>26.90000000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C7" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D7" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E7" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F7" t="n">
-        <v>12686.1694</v>
+        <v>5250.4117</v>
       </c>
       <c r="G7" t="n">
-        <v>26.90833333333336</v>
+        <v>26.90500000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C8" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D8" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E8" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F8" t="n">
-        <v>3862.0784</v>
+        <v>12686.1694</v>
       </c>
       <c r="G8" t="n">
-        <v>26.91333333333336</v>
+        <v>26.90833333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>27.3</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D9" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F9" t="n">
-        <v>27653.5244</v>
+        <v>3862.0784</v>
       </c>
       <c r="G9" t="n">
-        <v>26.91666666666669</v>
+        <v>26.91333333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C10" t="n">
         <v>27.2</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E10" t="n">
         <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>5402.5929</v>
+        <v>27653.5244</v>
       </c>
       <c r="G10" t="n">
-        <v>26.92000000000002</v>
+        <v>26.91666666666669</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>27.2</v>
       </c>
       <c r="F11" t="n">
-        <v>9244.772300000001</v>
+        <v>5402.5929</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92500000000002</v>
+        <v>26.92000000000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D12" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E12" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F12" t="n">
-        <v>16733.123</v>
+        <v>9244.772300000001</v>
       </c>
       <c r="G12" t="n">
-        <v>26.93000000000002</v>
+        <v>26.92500000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C13" t="n">
         <v>27.1</v>
       </c>
-      <c r="C13" t="n">
-        <v>27</v>
-      </c>
       <c r="D13" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E13" t="n">
         <v>27.1</v>
       </c>
-      <c r="E13" t="n">
-        <v>27</v>
-      </c>
       <c r="F13" t="n">
-        <v>1630.3866</v>
+        <v>16733.123</v>
       </c>
       <c r="G13" t="n">
-        <v>26.93500000000002</v>
+        <v>26.93000000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>27.1</v>
       </c>
       <c r="C14" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>27.1</v>
       </c>
       <c r="E14" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>1067</v>
+        <v>1630.3866</v>
       </c>
       <c r="G14" t="n">
-        <v>26.94166666666668</v>
+        <v>26.93500000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E15" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F15" t="n">
-        <v>895</v>
+        <v>1067</v>
       </c>
       <c r="G15" t="n">
-        <v>26.95333333333335</v>
+        <v>26.94166666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D16" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1593.774</v>
+        <v>895</v>
       </c>
       <c r="G16" t="n">
-        <v>26.96000000000002</v>
+        <v>26.95333333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C17" t="n">
         <v>27</v>
@@ -970,10 +970,10 @@
         <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>41333.7571</v>
+        <v>1593.774</v>
       </c>
       <c r="G17" t="n">
-        <v>26.96666666666669</v>
+        <v>26.96000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E18" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>8796.296</v>
+        <v>41333.7571</v>
       </c>
       <c r="G18" t="n">
-        <v>26.97500000000002</v>
+        <v>26.96666666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>8796.296</v>
       </c>
       <c r="G19" t="n">
-        <v>26.98166666666669</v>
+        <v>26.97500000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C20" t="n">
         <v>27.1</v>
@@ -1072,13 +1072,13 @@
         <v>27.1</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F20" t="n">
-        <v>10661.267</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>26.98833333333335</v>
+        <v>26.98166666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
         <v>27.1</v>
       </c>
-      <c r="C21" t="n">
-        <v>27</v>
-      </c>
       <c r="D21" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E21" t="n">
         <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>12462.075</v>
+        <v>10661.267</v>
       </c>
       <c r="G21" t="n">
-        <v>26.99333333333335</v>
+        <v>26.98833333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1139,26 +1139,32 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E22" t="n">
         <v>27</v>
       </c>
       <c r="F22" t="n">
-        <v>8796.296</v>
+        <v>12462.075</v>
       </c>
       <c r="G22" t="n">
-        <v>27.00000000000002</v>
+        <v>26.99333333333335</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>27.1</v>
       </c>
       <c r="C23" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>27.1</v>
@@ -1180,10 +1186,10 @@
         <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>110871.3919</v>
+        <v>8796.296</v>
       </c>
       <c r="G23" t="n">
-        <v>27.00833333333335</v>
+        <v>27.00000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1199,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1212,23 +1222,29 @@
         <v>27.1</v>
       </c>
       <c r="E24" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>55347.1966</v>
+        <v>110871.3919</v>
       </c>
       <c r="G24" t="n">
-        <v>27.01666666666669</v>
+        <v>27.00833333333335</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>27</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1250,10 +1266,10 @@
         <v>27.1</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>55347.1966</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02333333333335</v>
+        <v>27.01666666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1279,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1305,10 @@
         <v>27.1</v>
       </c>
       <c r="F26" t="n">
-        <v>14158.7065</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>27.03333333333335</v>
+        <v>27.02333333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1318,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1332,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C27" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D27" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E27" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F27" t="n">
-        <v>20719.8645</v>
+        <v>14158.7065</v>
       </c>
       <c r="G27" t="n">
-        <v>27.04166666666668</v>
+        <v>27.03333333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1357,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1349,16 +1377,16 @@
         <v>27.2</v>
       </c>
       <c r="D28" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E28" t="n">
         <v>27.2</v>
       </c>
       <c r="F28" t="n">
-        <v>1586.9999</v>
+        <v>20719.8645</v>
       </c>
       <c r="G28" t="n">
-        <v>27.05000000000001</v>
+        <v>27.04166666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1396,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C29" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E29" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F29" t="n">
-        <v>14964.0402</v>
+        <v>1586.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>27.05666666666668</v>
+        <v>27.05000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1435,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1449,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C30" t="n">
         <v>27.1</v>
       </c>
       <c r="D30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E30" t="n">
         <v>27.1</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>14964.0402</v>
       </c>
       <c r="G30" t="n">
-        <v>27.06333333333334</v>
+        <v>27.05666666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1474,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1488,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E31" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F31" t="n">
-        <v>8385.535099999999</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>27.07166666666668</v>
+        <v>27.06333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1513,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1527,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E32" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F32" t="n">
-        <v>9767</v>
+        <v>8385.535099999999</v>
       </c>
       <c r="G32" t="n">
-        <v>27.08333333333335</v>
+        <v>27.07166666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1552,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1566,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E33" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>9767</v>
       </c>
       <c r="G33" t="n">
-        <v>27.08833333333335</v>
+        <v>27.08333333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1591,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1608,19 @@
         <v>27.2</v>
       </c>
       <c r="C34" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D34" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E34" t="n">
         <v>27.2</v>
       </c>
       <c r="F34" t="n">
-        <v>64869.5929</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>27.09333333333334</v>
+        <v>27.08833333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1630,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1644,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C35" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D35" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E35" t="n">
         <v>27.2</v>
       </c>
       <c r="F35" t="n">
-        <v>123724.0001</v>
+        <v>64869.5929</v>
       </c>
       <c r="G35" t="n">
-        <v>27.09833333333334</v>
+        <v>27.09333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1669,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1626,19 +1686,19 @@
         <v>27.3</v>
       </c>
       <c r="C36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D36" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1610.1071</v>
+        <v>123724.0001</v>
       </c>
       <c r="G36" t="n">
-        <v>27.10500000000001</v>
+        <v>27.09833333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1708,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1725,19 @@
         <v>27.3</v>
       </c>
       <c r="C37" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D37" t="n">
         <v>27.3</v>
       </c>
       <c r="E37" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F37" t="n">
-        <v>34253.0818</v>
+        <v>1610.1071</v>
       </c>
       <c r="G37" t="n">
-        <v>27.11166666666668</v>
+        <v>27.10500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1747,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1761,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C38" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D38" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E38" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>34253.0818</v>
       </c>
       <c r="G38" t="n">
-        <v>27.12833333333334</v>
+        <v>27.11166666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1786,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1803,19 @@
         <v>27.7</v>
       </c>
       <c r="C39" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D39" t="n">
         <v>27.7</v>
       </c>
       <c r="E39" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F39" t="n">
-        <v>64479.5992</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>27.13500000000001</v>
+        <v>27.12833333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1825,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1839,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C40" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D40" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E40" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1527.2152</v>
+        <v>64479.5992</v>
       </c>
       <c r="G40" t="n">
-        <v>27.14666666666667</v>
+        <v>27.13500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1864,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1878,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E41" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F41" t="n">
-        <v>27992.2242</v>
+        <v>1527.2152</v>
       </c>
       <c r="G41" t="n">
-        <v>27.15333333333334</v>
+        <v>27.14666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1903,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1929,10 @@
         <v>27.3</v>
       </c>
       <c r="F42" t="n">
-        <v>35000</v>
+        <v>27992.2242</v>
       </c>
       <c r="G42" t="n">
-        <v>27.16333333333334</v>
+        <v>27.15333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1942,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +1968,10 @@
         <v>27.3</v>
       </c>
       <c r="F43" t="n">
-        <v>29829.4445</v>
+        <v>35000</v>
       </c>
       <c r="G43" t="n">
-        <v>27.17</v>
+        <v>27.16333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1981,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2007,10 @@
         <v>27.3</v>
       </c>
       <c r="F44" t="n">
-        <v>11718.6976</v>
+        <v>29829.4445</v>
       </c>
       <c r="G44" t="n">
-        <v>27.17666666666667</v>
+        <v>27.17</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2020,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +2046,10 @@
         <v>27.3</v>
       </c>
       <c r="F45" t="n">
-        <v>1872.4149</v>
+        <v>11718.6976</v>
       </c>
       <c r="G45" t="n">
-        <v>27.18166666666666</v>
+        <v>27.17666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2059,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2085,10 @@
         <v>27.3</v>
       </c>
       <c r="F46" t="n">
-        <v>34323.1029</v>
+        <v>1872.4149</v>
       </c>
       <c r="G46" t="n">
-        <v>27.18666666666666</v>
+        <v>27.18166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2098,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2112,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E47" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F47" t="n">
-        <v>12700</v>
+        <v>34323.1029</v>
       </c>
       <c r="G47" t="n">
-        <v>27.19</v>
+        <v>27.18666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2137,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2163,10 @@
         <v>27.2</v>
       </c>
       <c r="F48" t="n">
-        <v>4007.557</v>
+        <v>12700</v>
       </c>
       <c r="G48" t="n">
-        <v>27.19166666666667</v>
+        <v>27.19</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2176,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2202,10 @@
         <v>27.2</v>
       </c>
       <c r="F49" t="n">
-        <v>5809.6609</v>
+        <v>4007.557</v>
       </c>
       <c r="G49" t="n">
-        <v>27.19333333333334</v>
+        <v>27.19166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2215,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2229,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C50" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D50" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E50" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F50" t="n">
-        <v>160</v>
+        <v>5809.6609</v>
       </c>
       <c r="G50" t="n">
-        <v>27.20333333333333</v>
+        <v>27.19333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2254,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2268,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C51" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D51" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E51" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F51" t="n">
-        <v>3090.3327</v>
+        <v>160</v>
       </c>
       <c r="G51" t="n">
-        <v>27.21333333333333</v>
+        <v>27.20333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2293,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2310,19 @@
         <v>27.3</v>
       </c>
       <c r="C52" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D52" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E52" t="n">
         <v>27.3</v>
       </c>
       <c r="F52" t="n">
-        <v>49</v>
+        <v>3090.3327</v>
       </c>
       <c r="G52" t="n">
-        <v>27.21666666666667</v>
+        <v>27.21333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2332,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2221,16 +2349,16 @@
         <v>27.3</v>
       </c>
       <c r="C53" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D53" t="n">
         <v>27.3</v>
       </c>
       <c r="E53" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F53" t="n">
-        <v>78074.3547</v>
+        <v>49</v>
       </c>
       <c r="G53" t="n">
         <v>27.21666666666667</v>
@@ -2243,7 +2371,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2256,7 +2388,7 @@
         <v>27.3</v>
       </c>
       <c r="C54" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D54" t="n">
         <v>27.3</v>
@@ -2265,10 +2397,10 @@
         <v>27.2</v>
       </c>
       <c r="F54" t="n">
-        <v>66983.51459999999</v>
+        <v>78074.3547</v>
       </c>
       <c r="G54" t="n">
-        <v>27.22166666666667</v>
+        <v>27.21666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2410,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2297,13 +2433,13 @@
         <v>27.3</v>
       </c>
       <c r="E55" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F55" t="n">
-        <v>29995.9706</v>
+        <v>66983.51459999999</v>
       </c>
       <c r="G55" t="n">
-        <v>27.22666666666667</v>
+        <v>27.22166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2449,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2463,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E56" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>29995.9706</v>
       </c>
       <c r="G56" t="n">
-        <v>27.23333333333333</v>
+        <v>27.22666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2488,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2502,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E57" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F57" t="n">
-        <v>19220.4029</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>27.235</v>
+        <v>27.23333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2527,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,19 +2541,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E58" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F58" t="n">
-        <v>12265.7554</v>
+        <v>19220.4029</v>
       </c>
       <c r="G58" t="n">
         <v>27.235</v>
@@ -2418,7 +2566,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,7 +2592,7 @@
         <v>27.2</v>
       </c>
       <c r="F59" t="n">
-        <v>36200</v>
+        <v>12265.7554</v>
       </c>
       <c r="G59" t="n">
         <v>27.235</v>
@@ -2453,7 +2605,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2619,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E60" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F60" t="n">
-        <v>905.9773</v>
+        <v>36200</v>
       </c>
       <c r="G60" t="n">
-        <v>27.23666666666666</v>
+        <v>27.235</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2644,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,19 +2658,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E61" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F61" t="n">
-        <v>631.3891</v>
+        <v>905.9773</v>
       </c>
       <c r="G61" t="n">
         <v>27.23666666666666</v>
@@ -2523,7 +2683,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2697,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C62" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D62" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E62" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F62" t="n">
-        <v>4605.9773</v>
+        <v>631.3891</v>
       </c>
       <c r="G62" t="n">
-        <v>27.24333333333333</v>
+        <v>27.23666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2722,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2736,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C63" t="n">
         <v>27.6</v>
       </c>
-      <c r="C63" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D63" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E63" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F63" t="n">
-        <v>2091.9536</v>
+        <v>4605.9773</v>
       </c>
       <c r="G63" t="n">
-        <v>27.24666666666666</v>
+        <v>27.24333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2761,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2775,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C64" t="n">
         <v>27.7</v>
@@ -2612,13 +2784,13 @@
         <v>27.7</v>
       </c>
       <c r="E64" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F64" t="n">
-        <v>7029.8157</v>
+        <v>2091.9536</v>
       </c>
       <c r="G64" t="n">
-        <v>27.255</v>
+        <v>27.24666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2800,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2814,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E65" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F65" t="n">
-        <v>25936.1757</v>
+        <v>7029.8157</v>
       </c>
       <c r="G65" t="n">
-        <v>27.26333333333333</v>
+        <v>27.255</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2839,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2865,10 @@
         <v>27.8</v>
       </c>
       <c r="F66" t="n">
-        <v>8563.000099999999</v>
+        <v>25936.1757</v>
       </c>
       <c r="G66" t="n">
-        <v>27.27166666666666</v>
+        <v>27.26333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2878,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2904,10 @@
         <v>27.8</v>
       </c>
       <c r="F67" t="n">
-        <v>27815.1617</v>
+        <v>8563.000099999999</v>
       </c>
       <c r="G67" t="n">
-        <v>27.28166666666666</v>
+        <v>27.27166666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2917,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2931,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E68" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F68" t="n">
-        <v>851.7436</v>
+        <v>27815.1617</v>
       </c>
       <c r="G68" t="n">
-        <v>27.28833333333333</v>
+        <v>27.28166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2956,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2982,10 @@
         <v>27.7</v>
       </c>
       <c r="F69" t="n">
-        <v>39714.3573</v>
+        <v>851.7436</v>
       </c>
       <c r="G69" t="n">
-        <v>27.29666666666666</v>
+        <v>27.28833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2995,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3009,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E70" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F70" t="n">
-        <v>33807.6592</v>
+        <v>39714.3573</v>
       </c>
       <c r="G70" t="n">
-        <v>27.30833333333333</v>
+        <v>27.29666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3034,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +3051,19 @@
         <v>27.9</v>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D71" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E71" t="n">
         <v>27.9</v>
       </c>
       <c r="F71" t="n">
-        <v>50617.829</v>
+        <v>33807.6592</v>
       </c>
       <c r="G71" t="n">
-        <v>27.32166666666666</v>
+        <v>27.30833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3073,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,7 +3087,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C72" t="n">
         <v>28</v>
@@ -2892,13 +3096,13 @@
         <v>28</v>
       </c>
       <c r="E72" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F72" t="n">
-        <v>84136.357</v>
+        <v>50617.829</v>
       </c>
       <c r="G72" t="n">
-        <v>27.33666666666666</v>
+        <v>27.32166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3112,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +3138,10 @@
         <v>28</v>
       </c>
       <c r="F73" t="n">
-        <v>68154.5673</v>
+        <v>84136.357</v>
       </c>
       <c r="G73" t="n">
-        <v>27.35333333333333</v>
+        <v>27.33666666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3151,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3165,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E74" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>68154.5673</v>
       </c>
       <c r="G74" t="n">
-        <v>27.37333333333333</v>
+        <v>27.35333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3190,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3204,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="C75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="D75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="E75" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="F75" t="n">
-        <v>1583.0765</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>27.38666666666666</v>
+        <v>27.37333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3229,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3243,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E76" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F76" t="n">
-        <v>981.7024</v>
+        <v>1583.0765</v>
       </c>
       <c r="G76" t="n">
-        <v>27.40333333333333</v>
+        <v>27.38666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,10 +3268,12 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3070,10 +3292,10 @@
         <v>28</v>
       </c>
       <c r="F77" t="n">
-        <v>16388.9445</v>
+        <v>981.7024</v>
       </c>
       <c r="G77" t="n">
-        <v>27.42</v>
+        <v>27.40333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3318,19 @@
         <v>28</v>
       </c>
       <c r="C78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
         <v>28</v>
       </c>
       <c r="F78" t="n">
-        <v>2600</v>
+        <v>16388.9445</v>
       </c>
       <c r="G78" t="n">
-        <v>27.435</v>
+        <v>27.42</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,28 +3350,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>28</v>
+      </c>
+      <c r="C79" t="n">
         <v>28.1</v>
       </c>
-      <c r="C79" t="n">
-        <v>28.3</v>
-      </c>
       <c r="D79" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="E79" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F79" t="n">
-        <v>1510</v>
+        <v>2600</v>
       </c>
       <c r="G79" t="n">
-        <v>27.45499999999999</v>
+        <v>27.435</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3163,28 +3385,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C80" t="n">
         <v>28.3</v>
       </c>
-      <c r="C80" t="n">
-        <v>28</v>
-      </c>
       <c r="D80" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E80" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F80" t="n">
-        <v>249828.441</v>
+        <v>1510</v>
       </c>
       <c r="G80" t="n">
-        <v>27.47</v>
+        <v>27.45499999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3198,28 +3420,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="C81" t="n">
         <v>28</v>
       </c>
       <c r="D81" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E81" t="n">
         <v>28</v>
       </c>
       <c r="F81" t="n">
-        <v>67882.13800000001</v>
+        <v>249828.441</v>
       </c>
       <c r="G81" t="n">
-        <v>27.48666666666666</v>
+        <v>27.47</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3236,19 +3458,19 @@
         <v>28.1</v>
       </c>
       <c r="C82" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="E82" t="n">
         <v>28</v>
       </c>
       <c r="F82" t="n">
-        <v>25061.9586</v>
+        <v>67882.13800000001</v>
       </c>
       <c r="G82" t="n">
-        <v>27.505</v>
+        <v>27.48666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3277,19 +3499,19 @@
         <v>28.1</v>
       </c>
       <c r="E83" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F83" t="n">
-        <v>697</v>
+        <v>25061.9586</v>
       </c>
       <c r="G83" t="n">
-        <v>27.52166666666666</v>
+        <v>27.505</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3303,22 +3525,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D84" t="n">
         <v>28.1</v>
       </c>
       <c r="E84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F84" t="n">
-        <v>51370.1659</v>
+        <v>697</v>
       </c>
       <c r="G84" t="n">
-        <v>27.53666666666667</v>
+        <v>27.52166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,7 +3560,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C85" t="n">
         <v>28</v>
@@ -3350,10 +3572,10 @@
         <v>28</v>
       </c>
       <c r="F85" t="n">
-        <v>17113.3798</v>
+        <v>51370.1659</v>
       </c>
       <c r="G85" t="n">
-        <v>27.55166666666667</v>
+        <v>27.53666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3595,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="C86" t="n">
+        <v>28</v>
+      </c>
+      <c r="D86" t="n">
         <v>28.1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>28.3</v>
       </c>
       <c r="E86" t="n">
         <v>28</v>
       </c>
       <c r="F86" t="n">
-        <v>20020</v>
+        <v>17113.3798</v>
       </c>
       <c r="G86" t="n">
-        <v>27.56833333333333</v>
+        <v>27.55166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3630,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E87" t="n">
         <v>28</v>
       </c>
-      <c r="C87" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D87" t="n">
-        <v>28</v>
-      </c>
-      <c r="E87" t="n">
-        <v>27.8</v>
-      </c>
       <c r="F87" t="n">
-        <v>53835.2209</v>
+        <v>20020</v>
       </c>
       <c r="G87" t="n">
-        <v>27.57833333333333</v>
+        <v>27.56833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3665,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C88" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D88" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E88" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F88" t="n">
-        <v>49223.5243</v>
+        <v>53835.2209</v>
       </c>
       <c r="G88" t="n">
-        <v>27.58499999999999</v>
+        <v>27.57833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3703,19 @@
         <v>27.7</v>
       </c>
       <c r="C89" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D89" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E89" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F89" t="n">
-        <v>50007.9999</v>
+        <v>49223.5243</v>
       </c>
       <c r="G89" t="n">
-        <v>27.59833333333333</v>
+        <v>27.58499999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3522,13 +3744,13 @@
         <v>27.9</v>
       </c>
       <c r="E90" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F90" t="n">
-        <v>26251.2972</v>
+        <v>50007.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>27.61166666666667</v>
+        <v>27.59833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3770,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C91" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D91" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E91" t="n">
         <v>27.6</v>
       </c>
       <c r="F91" t="n">
-        <v>146587.964</v>
+        <v>26251.2972</v>
       </c>
       <c r="G91" t="n">
-        <v>27.61833333333333</v>
+        <v>27.61166666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3805,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C92" t="n">
         <v>27.6</v>
       </c>
       <c r="D92" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E92" t="n">
         <v>27.6</v>
       </c>
       <c r="F92" t="n">
-        <v>18115.942</v>
+        <v>146587.964</v>
       </c>
       <c r="G92" t="n">
-        <v>27.62333333333333</v>
+        <v>27.61833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3633,7 +3855,7 @@
         <v>18115.942</v>
       </c>
       <c r="G93" t="n">
-        <v>27.63</v>
+        <v>27.62333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3887,10 @@
         <v>27.6</v>
       </c>
       <c r="F94" t="n">
-        <v>39999.579</v>
+        <v>18115.942</v>
       </c>
       <c r="G94" t="n">
-        <v>27.63499999999999</v>
+        <v>27.63</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3910,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C95" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D95" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E95" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F95" t="n">
-        <v>4096.1986</v>
+        <v>39999.579</v>
       </c>
       <c r="G95" t="n">
-        <v>27.64333333333333</v>
+        <v>27.63499999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3729,16 +3951,16 @@
         <v>27.7</v>
       </c>
       <c r="D96" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E96" t="n">
         <v>27.7</v>
       </c>
       <c r="F96" t="n">
-        <v>73536.3729</v>
+        <v>4096.1986</v>
       </c>
       <c r="G96" t="n">
-        <v>27.65</v>
+        <v>27.64333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3992,10 @@
         <v>27.7</v>
       </c>
       <c r="F97" t="n">
-        <v>54642</v>
+        <v>73536.3729</v>
       </c>
       <c r="G97" t="n">
-        <v>27.65833333333333</v>
+        <v>27.65</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,7 +4027,7 @@
         <v>27.7</v>
       </c>
       <c r="F98" t="n">
-        <v>63263.7688</v>
+        <v>54642</v>
       </c>
       <c r="G98" t="n">
         <v>27.65833333333333</v>
@@ -3831,19 +4053,19 @@
         <v>27.7</v>
       </c>
       <c r="C99" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D99" t="n">
         <v>27.7</v>
       </c>
       <c r="E99" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F99" t="n">
-        <v>39775.0001</v>
+        <v>63263.7688</v>
       </c>
       <c r="G99" t="n">
-        <v>27.66333333333333</v>
+        <v>27.65833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4085,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C100" t="n">
         <v>27.6</v>
       </c>
       <c r="D100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E100" t="n">
         <v>27.6</v>
       </c>
       <c r="F100" t="n">
-        <v>36241.8841</v>
+        <v>39775.0001</v>
       </c>
       <c r="G100" t="n">
-        <v>27.66666666666666</v>
+        <v>27.66333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +4123,19 @@
         <v>27.8</v>
       </c>
       <c r="C101" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D101" t="n">
         <v>27.8</v>
       </c>
       <c r="E101" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>36241.8841</v>
       </c>
       <c r="G101" t="n">
-        <v>27.67499999999999</v>
+        <v>27.66666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4155,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E102" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F102" t="n">
-        <v>146.8538</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>27.67833333333333</v>
+        <v>27.67499999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4190,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E103" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>146.8538</v>
       </c>
       <c r="G103" t="n">
-        <v>27.68666666666666</v>
+        <v>27.67833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4225,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C104" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D104" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E104" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F104" t="n">
-        <v>32364.0834</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>27.69333333333333</v>
+        <v>27.68666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4263,19 @@
         <v>27.6</v>
       </c>
       <c r="C105" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D105" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E105" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F105" t="n">
-        <v>5786.123188405797</v>
+        <v>32364.0834</v>
       </c>
       <c r="G105" t="n">
-        <v>27.69833333333333</v>
+        <v>27.69333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,19 +4295,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C106" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D106" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E106" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F106" t="n">
-        <v>90225.7564</v>
+        <v>5786.123188405797</v>
       </c>
       <c r="G106" t="n">
         <v>27.69833333333333</v>
@@ -4108,22 +4330,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C107" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E107" t="n">
         <v>27.3</v>
       </c>
       <c r="F107" t="n">
-        <v>9534.2829</v>
+        <v>90225.7564</v>
       </c>
       <c r="G107" t="n">
-        <v>27.70499999999999</v>
+        <v>27.69833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,35 +4365,31 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C108" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D108" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E108" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1725.3055</v>
+        <v>9534.2829</v>
       </c>
       <c r="G108" t="n">
-        <v>27.70833333333333</v>
+        <v>27.70499999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K108" t="n">
-        <v>27.6</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
@@ -4182,41 +4400,68 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1725.3055</v>
+      </c>
+      <c r="G109" t="n">
+        <v>27.70833333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
         <v>27.6</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C110" t="n">
         <v>27.6</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D110" t="n">
         <v>27.6</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E110" t="n">
         <v>27.6</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F110" t="n">
         <v>20</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G110" t="n">
         <v>27.71499999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K109" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>26624.1945</v>
       </c>
       <c r="G2" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="H2" t="n">
         <v>26.88666666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>26905.0056</v>
       </c>
       <c r="G3" t="n">
+        <v>27.13333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>26.88833333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>272082.3069</v>
       </c>
       <c r="G4" t="n">
+        <v>27.15999999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>26.89500000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>8130.3447</v>
       </c>
       <c r="G5" t="n">
+        <v>27.16666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>26.89666666666669</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7899</v>
       </c>
       <c r="G6" t="n">
+        <v>27.18666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>26.90000000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5250.4117</v>
       </c>
       <c r="G7" t="n">
+        <v>27.19999999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>26.90500000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>12686.1694</v>
       </c>
       <c r="G8" t="n">
+        <v>27.20666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>26.90833333333336</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3862.0784</v>
       </c>
       <c r="G9" t="n">
+        <v>27.21333333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>26.91333333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>27653.5244</v>
       </c>
       <c r="G10" t="n">
+        <v>27.22666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>26.91666666666669</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5402.5929</v>
       </c>
       <c r="G11" t="n">
+        <v>27.23999999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>26.92000000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>9244.772300000001</v>
       </c>
       <c r="G12" t="n">
+        <v>27.23999999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>26.92500000000002</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>16733.123</v>
       </c>
       <c r="G13" t="n">
+        <v>27.23333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>26.93000000000002</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,27 @@
         <v>1630.3866</v>
       </c>
       <c r="G14" t="n">
+        <v>27.21999999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>26.93500000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27.1</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +953,27 @@
         <v>1067</v>
       </c>
       <c r="G15" t="n">
+        <v>27.21333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>26.94166666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>27</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +997,27 @@
         <v>895</v>
       </c>
       <c r="G16" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="H16" t="n">
         <v>26.95333333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>27.1</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1041,27 @@
         <v>1593.774</v>
       </c>
       <c r="G17" t="n">
+        <v>27.20666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>26.96000000000002</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1085,27 @@
         <v>41333.7571</v>
       </c>
       <c r="G18" t="n">
+        <v>27.19333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>26.96666666666669</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1129,27 @@
         <v>8796.296</v>
       </c>
       <c r="G19" t="n">
+        <v>27.17333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>26.97500000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>27</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1173,25 @@
         <v>50000</v>
       </c>
       <c r="G20" t="n">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>26.98166666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1215,25 @@
         <v>10661.267</v>
       </c>
       <c r="G21" t="n">
+        <v>27.15333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>26.98833333333335</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,24 +1257,25 @@
         <v>12462.075</v>
       </c>
       <c r="G22" t="n">
+        <v>27.13333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>26.99333333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1189,22 +1299,25 @@
         <v>8796.296</v>
       </c>
       <c r="G23" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="H23" t="n">
         <v>27.00000000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,24 +1341,25 @@
         <v>110871.3919</v>
       </c>
       <c r="G24" t="n">
+        <v>27.10666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>27.00833333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,22 +1383,25 @@
         <v>55347.1966</v>
       </c>
       <c r="G25" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="H25" t="n">
         <v>27.01666666666669</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,22 +1425,25 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
+        <v>27.09333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>27.02333333333335</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1347,22 +1467,25 @@
         <v>14158.7065</v>
       </c>
       <c r="G27" t="n">
+        <v>27.08666666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>27.03333333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,22 +1509,27 @@
         <v>20719.8645</v>
       </c>
       <c r="G28" t="n">
+        <v>27.09333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>27.04166666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1425,22 +1553,27 @@
         <v>1586.9999</v>
       </c>
       <c r="G29" t="n">
+        <v>27.10666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>27.05000000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,22 +1597,25 @@
         <v>14964.0402</v>
       </c>
       <c r="G30" t="n">
+        <v>27.10666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>27.05666666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1503,22 +1639,27 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
+        <v>27.09333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>27.06333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1542,22 +1683,27 @@
         <v>8385.535099999999</v>
       </c>
       <c r="G32" t="n">
+        <v>27.10666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>27.07166666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1581,22 +1727,25 @@
         <v>9767</v>
       </c>
       <c r="G33" t="n">
+        <v>27.12666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>27.08333333333335</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,22 +1769,25 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
+        <v>27.12666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>27.08833333333335</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1659,22 +1811,25 @@
         <v>64869.5929</v>
       </c>
       <c r="G35" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="H35" t="n">
         <v>27.09333333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1698,22 +1853,25 @@
         <v>123724.0001</v>
       </c>
       <c r="G36" t="n">
+        <v>27.14666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>27.09833333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1737,22 +1895,25 @@
         <v>1610.1071</v>
       </c>
       <c r="G37" t="n">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>27.10500000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,22 +1937,25 @@
         <v>34253.0818</v>
       </c>
       <c r="G38" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="H38" t="n">
         <v>27.11166666666668</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1815,22 +1979,25 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="H39" t="n">
         <v>27.12833333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,22 +2021,25 @@
         <v>64479.5992</v>
       </c>
       <c r="G40" t="n">
+        <v>27.23333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>27.13500000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1893,22 +2063,25 @@
         <v>1527.2152</v>
       </c>
       <c r="G41" t="n">
+        <v>27.25333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>27.14666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,22 +2105,25 @@
         <v>27992.2242</v>
       </c>
       <c r="G42" t="n">
+        <v>27.26666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>27.15333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,22 +2147,25 @@
         <v>35000</v>
       </c>
       <c r="G43" t="n">
+        <v>27.27333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>27.16333333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,22 +2189,25 @@
         <v>29829.4445</v>
       </c>
       <c r="G44" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="H44" t="n">
         <v>27.17</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2049,22 +2231,25 @@
         <v>11718.6976</v>
       </c>
       <c r="G45" t="n">
+        <v>27.29333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>27.17666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,22 +2273,25 @@
         <v>1872.4149</v>
       </c>
       <c r="G46" t="n">
+        <v>27.30666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>27.18166666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,22 +2315,27 @@
         <v>34323.1029</v>
       </c>
       <c r="G47" t="n">
+        <v>27.31333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>27.18666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,22 +2359,25 @@
         <v>12700</v>
       </c>
       <c r="G48" t="n">
+        <v>27.30666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>27.19</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2205,22 +2401,27 @@
         <v>4007.557</v>
       </c>
       <c r="G49" t="n">
+        <v>27.30666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>27.19166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2244,22 +2445,27 @@
         <v>5809.6609</v>
       </c>
       <c r="G50" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H50" t="n">
         <v>27.19333333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2283,22 +2489,27 @@
         <v>160</v>
       </c>
       <c r="G51" t="n">
+        <v>27.32666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>27.20333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,22 +2533,25 @@
         <v>3090.3327</v>
       </c>
       <c r="G52" t="n">
+        <v>27.35333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>27.21333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2361,22 +2575,25 @@
         <v>49</v>
       </c>
       <c r="G53" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="H53" t="n">
         <v>27.21666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,22 +2617,25 @@
         <v>78074.3547</v>
       </c>
       <c r="G54" t="n">
+        <v>27.32666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>27.21666666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2439,22 +2659,25 @@
         <v>66983.51459999999</v>
       </c>
       <c r="G55" t="n">
+        <v>27.32666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>27.22166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,22 +2701,25 @@
         <v>29995.9706</v>
       </c>
       <c r="G56" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="H56" t="n">
         <v>27.22666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2517,22 +2743,25 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="H57" t="n">
         <v>27.23333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,22 +2785,25 @@
         <v>19220.4029</v>
       </c>
       <c r="G58" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="H58" t="n">
         <v>27.235</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2595,22 +2827,25 @@
         <v>12265.7554</v>
       </c>
       <c r="G59" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>27.235</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,22 +2869,25 @@
         <v>36200</v>
       </c>
       <c r="G60" t="n">
+        <v>27.32666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>27.235</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,22 +2911,25 @@
         <v>905.9773</v>
       </c>
       <c r="G61" t="n">
+        <v>27.32666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>27.23666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,22 +2953,25 @@
         <v>631.3891</v>
       </c>
       <c r="G62" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="H62" t="n">
         <v>27.23666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2751,22 +2995,27 @@
         <v>4605.9773</v>
       </c>
       <c r="G63" t="n">
+        <v>27.34666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>27.24333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,22 +3039,25 @@
         <v>2091.9536</v>
       </c>
       <c r="G64" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="H64" t="n">
         <v>27.24666666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,22 +3081,25 @@
         <v>7029.8157</v>
       </c>
       <c r="G65" t="n">
+        <v>27.41333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>27.255</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,22 +3123,25 @@
         <v>25936.1757</v>
       </c>
       <c r="G66" t="n">
+        <v>27.42666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>27.26333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2907,22 +3165,25 @@
         <v>8563.000099999999</v>
       </c>
       <c r="G67" t="n">
+        <v>27.43333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>27.27166666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,22 +3207,25 @@
         <v>27815.1617</v>
       </c>
       <c r="G68" t="n">
+        <v>27.46666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>27.28166666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,22 +3249,25 @@
         <v>851.7436</v>
       </c>
       <c r="G69" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H69" t="n">
         <v>27.28833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,22 +3291,25 @@
         <v>39714.3573</v>
       </c>
       <c r="G70" t="n">
+        <v>27.52666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>27.29666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3063,22 +3333,25 @@
         <v>33807.6592</v>
       </c>
       <c r="G71" t="n">
+        <v>27.56666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>27.30833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,22 +3375,25 @@
         <v>50617.829</v>
       </c>
       <c r="G72" t="n">
+        <v>27.59333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>27.32166666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3141,22 +3417,25 @@
         <v>84136.357</v>
       </c>
       <c r="G73" t="n">
+        <v>27.63999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>27.33666666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,22 +3459,25 @@
         <v>68154.5673</v>
       </c>
       <c r="G74" t="n">
+        <v>27.69333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>27.35333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3219,22 +3501,25 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
+        <v>27.76666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>27.37333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,22 +3543,27 @@
         <v>1583.0765</v>
       </c>
       <c r="G76" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="H76" t="n">
         <v>27.38666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3295,18 +3585,25 @@
         <v>981.7024</v>
       </c>
       <c r="G77" t="n">
+        <v>27.87333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>27.40333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,18 +3627,25 @@
         <v>16388.9445</v>
       </c>
       <c r="G78" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H78" t="n">
         <v>27.42</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3365,18 +3669,25 @@
         <v>2600</v>
       </c>
       <c r="G79" t="n">
+        <v>27.92666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>27.435</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,20 +3711,25 @@
         <v>1510</v>
       </c>
       <c r="G80" t="n">
+        <v>27.96666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>27.45499999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3435,18 +3751,21 @@
         <v>249828.441</v>
       </c>
       <c r="G81" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="H81" t="n">
         <v>27.47</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,18 +3789,21 @@
         <v>67882.13800000001</v>
       </c>
       <c r="G82" t="n">
+        <v>27.99333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>27.48666666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,18 +3827,21 @@
         <v>25061.9586</v>
       </c>
       <c r="G83" t="n">
+        <v>28.01333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>27.505</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,18 +3865,21 @@
         <v>697</v>
       </c>
       <c r="G84" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="H84" t="n">
         <v>27.52166666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,18 +3903,21 @@
         <v>51370.1659</v>
       </c>
       <c r="G85" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="H85" t="n">
         <v>27.53666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,18 +3941,21 @@
         <v>17113.3798</v>
       </c>
       <c r="G86" t="n">
+        <v>28.06666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>27.55166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,18 +3979,21 @@
         <v>20020</v>
       </c>
       <c r="G87" t="n">
+        <v>28.07333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>27.56833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,18 +4017,21 @@
         <v>53835.2209</v>
       </c>
       <c r="G88" t="n">
+        <v>28.06000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>27.57833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3715,18 +4055,21 @@
         <v>49223.5243</v>
       </c>
       <c r="G89" t="n">
+        <v>28.03333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>27.58499999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,18 +4093,21 @@
         <v>50007.9999</v>
       </c>
       <c r="G90" t="n">
+        <v>28.00666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>27.59833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3785,18 +4131,21 @@
         <v>26251.2972</v>
       </c>
       <c r="G91" t="n">
+        <v>27.99333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>27.61166666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,18 +4169,21 @@
         <v>146587.964</v>
       </c>
       <c r="G92" t="n">
+        <v>27.96666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>27.61833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,18 +4207,21 @@
         <v>18115.942</v>
       </c>
       <c r="G93" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="H93" t="n">
         <v>27.62333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,18 +4245,21 @@
         <v>18115.942</v>
       </c>
       <c r="G94" t="n">
+        <v>27.90666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>27.63</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3925,18 +4283,21 @@
         <v>39999.579</v>
       </c>
       <c r="G95" t="n">
+        <v>27.86000000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>27.63499999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,18 +4321,21 @@
         <v>4096.1986</v>
       </c>
       <c r="G96" t="n">
+        <v>27.84000000000001</v>
+      </c>
+      <c r="H96" t="n">
         <v>27.64333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,18 +4359,21 @@
         <v>73536.3729</v>
       </c>
       <c r="G97" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="H97" t="n">
         <v>27.65</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,18 +4397,21 @@
         <v>54642</v>
       </c>
       <c r="G98" t="n">
+        <v>27.79333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>27.65833333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4065,18 +4435,21 @@
         <v>63263.7688</v>
       </c>
       <c r="G99" t="n">
+        <v>27.76666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>27.65833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,18 +4473,21 @@
         <v>39775.0001</v>
       </c>
       <c r="G100" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="H100" t="n">
         <v>27.66333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4135,18 +4511,21 @@
         <v>36241.8841</v>
       </c>
       <c r="G101" t="n">
+        <v>27.71333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>27.66666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,18 +4549,21 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
+        <v>27.69333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>27.67499999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4205,18 +4587,21 @@
         <v>146.8538</v>
       </c>
       <c r="G103" t="n">
+        <v>27.67333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>27.67833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,18 +4625,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
+        <v>27.68666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>27.68666666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4275,18 +4663,21 @@
         <v>32364.0834</v>
       </c>
       <c r="G105" t="n">
+        <v>27.67333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>27.69333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,18 +4701,21 @@
         <v>5786.123188405797</v>
       </c>
       <c r="G106" t="n">
+        <v>27.65333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>27.69833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4345,18 +4739,21 @@
         <v>90225.7564</v>
       </c>
       <c r="G107" t="n">
+        <v>27.63333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>27.69833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,18 +4777,21 @@
         <v>9534.2829</v>
       </c>
       <c r="G108" t="n">
+        <v>27.63333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>27.70499999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4415,18 +4815,21 @@
         <v>1725.3055</v>
       </c>
       <c r="G109" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="H109" t="n">
         <v>27.70833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,18 +4853,401 @@
         <v>20</v>
       </c>
       <c r="G110" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="H110" t="n">
         <v>27.71499999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>141254.2882</v>
+      </c>
+      <c r="G111" t="n">
+        <v>27.58666666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>27.70833333333333</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3878</v>
+      </c>
+      <c r="G112" t="n">
+        <v>27.56666666666667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>27.70333333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>689.5094</v>
+      </c>
+      <c r="G113" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="H113" t="n">
+        <v>27.70333333333333</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>36675.9999</v>
+      </c>
+      <c r="G114" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="H114" t="n">
+        <v>27.70666666666666</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>43831.4057</v>
+      </c>
+      <c r="G115" t="n">
+        <v>27.51333333333333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>27.70999999999999</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G116" t="n">
+        <v>27.50666666666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>27.71333333333333</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>64745.324</v>
+      </c>
+      <c r="G117" t="n">
+        <v>27.46666666666666</v>
+      </c>
+      <c r="H117" t="n">
+        <v>27.70666666666666</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>127773.7258</v>
+      </c>
+      <c r="G118" t="n">
+        <v>27.44666666666666</v>
+      </c>
+      <c r="H118" t="n">
+        <v>27.705</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>36764.6691</v>
+      </c>
+      <c r="G119" t="n">
+        <v>27.40666666666666</v>
+      </c>
+      <c r="H119" t="n">
+        <v>27.705</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>58031.5064</v>
+      </c>
+      <c r="G120" t="n">
+        <v>27.37333333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>27.705</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C2" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E2" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="F2" t="n">
-        <v>297919.2222</v>
+        <v>1067</v>
       </c>
       <c r="G2" t="n">
-        <v>-127210.7933164794</v>
+        <v>6282.485083520574</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="C3" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="D3" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="F3" t="n">
-        <v>38702.4641</v>
+        <v>895</v>
       </c>
       <c r="G3" t="n">
-        <v>-88508.32921647943</v>
+        <v>7177.485083520574</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C4" t="n">
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E4" t="n">
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>1593.774</v>
       </c>
       <c r="G4" t="n">
-        <v>-88498.32921647943</v>
+        <v>5583.711083520575</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E5" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>41333.7571</v>
       </c>
       <c r="G5" t="n">
-        <v>-88598.32921647943</v>
+        <v>5583.711083520575</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,63 +575,69 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C6" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D6" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E6" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="F6" t="n">
-        <v>120</v>
+        <v>8796.296</v>
       </c>
       <c r="G6" t="n">
-        <v>-88598.32921647943</v>
+        <v>14380.00708352058</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>27</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C7" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="D7" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E7" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="F7" t="n">
-        <v>11802.2928</v>
+        <v>50000</v>
       </c>
       <c r="G7" t="n">
-        <v>-100400.6220164794</v>
+        <v>-35619.99291647942</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,11 +646,18 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>27</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,19 +667,19 @@
         <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E8" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>67673.51850000001</v>
+        <v>10661.267</v>
       </c>
       <c r="G8" t="n">
-        <v>-168074.1405164794</v>
+        <v>-35619.99291647942</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,33 +688,40 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>27</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E9" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>547.8865</v>
+        <v>12462.075</v>
       </c>
       <c r="G9" t="n">
-        <v>-167526.2540164794</v>
+        <v>-48082.06791647943</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,33 +730,40 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="E10" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>23245.5234</v>
+        <v>8796.296</v>
       </c>
       <c r="G10" t="n">
-        <v>-190771.7774164795</v>
+        <v>-48082.06791647943</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,33 +772,40 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>27</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>110871.3919</v>
       </c>
       <c r="G11" t="n">
-        <v>-190761.7774164795</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,221 +814,282 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>27</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="D12" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="E12" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>55347.1966</v>
       </c>
       <c r="G12" t="n">
-        <v>-190776.7774164795</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>27</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-190765.7774164795</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>27</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="F14" t="n">
-        <v>55087.0925</v>
+        <v>14158.7065</v>
       </c>
       <c r="G14" t="n">
-        <v>-190765.7774164795</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F15" t="n">
-        <v>22011.2965</v>
+        <v>20719.8645</v>
       </c>
       <c r="G15" t="n">
-        <v>-168754.4809164795</v>
+        <v>83509.18848352057</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>27</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F16" t="n">
-        <v>876.7648</v>
+        <v>1586.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>-168754.4809164795</v>
+        <v>83509.18848352057</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>27</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F17" t="n">
-        <v>51659.9629</v>
+        <v>14964.0402</v>
       </c>
       <c r="G17" t="n">
-        <v>-168754.4809164795</v>
+        <v>68545.14828352057</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1005,163 +1108,208 @@
         <v>27.1</v>
       </c>
       <c r="F18" t="n">
-        <v>552</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-168202.4809164795</v>
+        <v>68545.14828352057</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8385.535099999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>76930.68338352056</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>27.1</v>
       </c>
-      <c r="C19" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>140.214</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-168202.4809164795</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>27</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F20" t="n">
-        <v>57298.1581</v>
+        <v>9767</v>
       </c>
       <c r="G20" t="n">
-        <v>-225500.6390164795</v>
+        <v>86697.68338352056</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>27</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C21" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D21" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E21" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F21" t="n">
-        <v>84390.0886</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-141110.5504164795</v>
+        <v>86687.68338352056</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C22" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D22" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="E22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F22" t="n">
-        <v>50028.0277</v>
+        <v>64869.5929</v>
       </c>
       <c r="G22" t="n">
-        <v>-141110.5504164795</v>
+        <v>151557.2762835206</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1174,29 +1322,38 @@
         <v>27.2</v>
       </c>
       <c r="D23" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E23" t="n">
         <v>27.2</v>
       </c>
       <c r="F23" t="n">
-        <v>59647.3119</v>
+        <v>123724.0001</v>
       </c>
       <c r="G23" t="n">
-        <v>-81463.23851647947</v>
+        <v>27833.27618352056</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1206,19 +1363,19 @@
         <v>27.3</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D24" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F24" t="n">
-        <v>130970.7393</v>
+        <v>1610.1071</v>
       </c>
       <c r="G24" t="n">
-        <v>-212433.9778164795</v>
+        <v>29443.38328352056</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,11 +1384,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>27</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1241,19 +1405,19 @@
         <v>27.3</v>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D25" t="n">
         <v>27.3</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F25" t="n">
-        <v>2836.482</v>
+        <v>34253.0818</v>
       </c>
       <c r="G25" t="n">
-        <v>-212433.9778164795</v>
+        <v>-4809.698516479439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1426,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>27</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C26" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D26" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E26" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F26" t="n">
-        <v>639.6257000000001</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-211794.3521164795</v>
+        <v>-4799.698516479439</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1468,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>27</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C27" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D27" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E27" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F27" t="n">
-        <v>901.829</v>
+        <v>64479.5992</v>
       </c>
       <c r="G27" t="n">
-        <v>-211794.3521164795</v>
+        <v>-69279.29771647943</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1510,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>27</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C28" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D28" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E28" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F28" t="n">
-        <v>856.7375</v>
+        <v>1527.2152</v>
       </c>
       <c r="G28" t="n">
-        <v>-211794.3521164795</v>
+        <v>-67752.08251647942</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1552,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>27</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C29" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D29" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E29" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2398.192</v>
+        <v>27992.2242</v>
       </c>
       <c r="G29" t="n">
-        <v>-211794.3521164795</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1594,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C30" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D30" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E30" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F30" t="n">
-        <v>8915.441000000001</v>
+        <v>35000</v>
       </c>
       <c r="G30" t="n">
-        <v>-211794.3521164795</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1636,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>27</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C31" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D31" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E31" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F31" t="n">
-        <v>26624.1945</v>
+        <v>29829.4445</v>
       </c>
       <c r="G31" t="n">
-        <v>-211794.3521164795</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1678,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>27</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C32" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D32" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E32" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F32" t="n">
-        <v>26905.0056</v>
+        <v>11718.6976</v>
       </c>
       <c r="G32" t="n">
-        <v>-211794.3521164795</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,11 +1720,18 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>27</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1521,19 +1741,19 @@
         <v>27.3</v>
       </c>
       <c r="C33" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D33" t="n">
-        <v>28.4</v>
+        <v>27.3</v>
       </c>
       <c r="E33" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F33" t="n">
-        <v>272082.3069</v>
+        <v>1872.4149</v>
       </c>
       <c r="G33" t="n">
-        <v>60287.95478352057</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1762,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>27</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C34" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D34" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E34" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F34" t="n">
-        <v>8130.3447</v>
+        <v>34323.1029</v>
       </c>
       <c r="G34" t="n">
-        <v>52157.61008352057</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1804,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>27</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C35" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D35" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E35" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F35" t="n">
-        <v>7899</v>
+        <v>12700</v>
       </c>
       <c r="G35" t="n">
-        <v>60056.61008352057</v>
+        <v>-108444.3067164794</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1846,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>27</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F36" t="n">
-        <v>5250.4117</v>
+        <v>4007.557</v>
       </c>
       <c r="G36" t="n">
-        <v>60056.61008352057</v>
+        <v>-108444.3067164794</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,81 +1888,106 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>27</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C37" t="n">
         <v>27.2</v>
       </c>
       <c r="D37" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E37" t="n">
         <v>27.2</v>
       </c>
       <c r="F37" t="n">
-        <v>12686.1694</v>
+        <v>5809.6609</v>
       </c>
       <c r="G37" t="n">
-        <v>47370.44068352057</v>
+        <v>-108444.3067164794</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>27</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C38" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D38" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E38" t="n">
         <v>27.4</v>
       </c>
-      <c r="E38" t="n">
-        <v>27.3</v>
-      </c>
       <c r="F38" t="n">
-        <v>3862.0784</v>
+        <v>160</v>
       </c>
       <c r="G38" t="n">
-        <v>51232.51908352057</v>
+        <v>-108284.3067164794</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>27</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1731,54 +1997,63 @@
         <v>27.3</v>
       </c>
       <c r="C39" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D39" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E39" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F39" t="n">
-        <v>27653.5244</v>
+        <v>3090.3327</v>
       </c>
       <c r="G39" t="n">
-        <v>23578.99468352057</v>
+        <v>-105193.9740164794</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>27</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C40" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D40" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E40" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F40" t="n">
-        <v>5402.5929</v>
+        <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>23578.99468352057</v>
+        <v>-105242.9740164794</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,46 +2062,62 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>27</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C41" t="n">
         <v>27.2</v>
       </c>
       <c r="D41" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E41" t="n">
         <v>27.2</v>
       </c>
       <c r="F41" t="n">
-        <v>9244.772300000001</v>
+        <v>78074.3547</v>
       </c>
       <c r="G41" t="n">
-        <v>23578.99468352057</v>
+        <v>-183317.3287164794</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>27</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1836,102 +2127,129 @@
         <v>27.3</v>
       </c>
       <c r="C42" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D42" t="n">
         <v>27.3</v>
       </c>
       <c r="E42" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F42" t="n">
-        <v>16733.123</v>
+        <v>66983.51459999999</v>
       </c>
       <c r="G42" t="n">
-        <v>6845.871683520574</v>
+        <v>-116333.8141164794</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>27</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D43" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E43" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1630.3866</v>
+        <v>29995.9706</v>
       </c>
       <c r="G43" t="n">
-        <v>5215.485083520574</v>
+        <v>-116333.8141164794</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>27</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="C44" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="D44" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="E44" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="F44" t="n">
-        <v>1067</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>6282.485083520574</v>
+        <v>-116323.8141164794</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>27</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1950,10 +2268,10 @@
         <v>27.3</v>
       </c>
       <c r="F45" t="n">
-        <v>895</v>
+        <v>19220.4029</v>
       </c>
       <c r="G45" t="n">
-        <v>7177.485083520574</v>
+        <v>-135544.2170164794</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2280,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>27</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D46" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E46" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1593.774</v>
+        <v>12265.7554</v>
       </c>
       <c r="G46" t="n">
-        <v>5583.711083520575</v>
+        <v>-147809.9724164794</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2322,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>27</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D47" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E47" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F47" t="n">
-        <v>41333.7571</v>
+        <v>36200</v>
       </c>
       <c r="G47" t="n">
-        <v>5583.711083520575</v>
+        <v>-147809.9724164794</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2364,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>27</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C48" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D48" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E48" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F48" t="n">
-        <v>8796.296</v>
+        <v>905.9773</v>
       </c>
       <c r="G48" t="n">
-        <v>14380.00708352058</v>
+        <v>-146903.9951164794</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2406,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>27</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C49" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D49" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E49" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F49" t="n">
-        <v>50000</v>
+        <v>631.3891</v>
       </c>
       <c r="G49" t="n">
-        <v>-35619.99291647942</v>
+        <v>-147535.3842164794</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2448,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>27</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C50" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="D50" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="E50" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F50" t="n">
-        <v>10661.267</v>
+        <v>4605.9773</v>
       </c>
       <c r="G50" t="n">
-        <v>-35619.99291647942</v>
+        <v>-142929.4069164794</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2490,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>27</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="D51" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E51" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="F51" t="n">
-        <v>12462.075</v>
+        <v>2091.9536</v>
       </c>
       <c r="G51" t="n">
-        <v>-48082.06791647943</v>
+        <v>-140837.4533164794</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2532,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>27</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="C52" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="D52" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="E52" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="F52" t="n">
-        <v>8796.296</v>
+        <v>7029.8157</v>
       </c>
       <c r="G52" t="n">
-        <v>-48082.06791647943</v>
+        <v>-140837.4533164794</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2574,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>27</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="C53" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="D53" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="E53" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F53" t="n">
-        <v>110871.3919</v>
+        <v>25936.1757</v>
       </c>
       <c r="G53" t="n">
-        <v>62789.32398352057</v>
+        <v>-114901.2776164794</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2616,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>27</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="C54" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="D54" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="E54" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="F54" t="n">
-        <v>55347.1966</v>
+        <v>8563.000099999999</v>
       </c>
       <c r="G54" t="n">
-        <v>62789.32398352057</v>
+        <v>-114901.2776164794</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2658,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>27</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="C55" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="D55" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="E55" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>27815.1617</v>
       </c>
       <c r="G55" t="n">
-        <v>62789.32398352057</v>
+        <v>-114901.2776164794</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2700,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>27</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="C56" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="D56" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="E56" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="F56" t="n">
-        <v>14158.7065</v>
+        <v>851.7436</v>
       </c>
       <c r="G56" t="n">
-        <v>62789.32398352057</v>
+        <v>-115753.0212164794</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2742,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>27</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C57" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D57" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E57" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F57" t="n">
-        <v>20719.8645</v>
+        <v>39714.3573</v>
       </c>
       <c r="G57" t="n">
-        <v>83509.18848352057</v>
+        <v>-115753.0212164794</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2784,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>27</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="C58" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D58" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E58" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="F58" t="n">
-        <v>1586.9999</v>
+        <v>33807.6592</v>
       </c>
       <c r="G58" t="n">
-        <v>83509.18848352057</v>
+        <v>-81945.3620164794</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,33 +2826,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>27</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C59" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E59" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="F59" t="n">
-        <v>14964.0402</v>
+        <v>50617.829</v>
       </c>
       <c r="G59" t="n">
-        <v>68545.14828352057</v>
+        <v>-31327.5330164794</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2868,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>27</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="C60" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>84136.357</v>
       </c>
       <c r="G60" t="n">
-        <v>68545.14828352057</v>
+        <v>-31327.5330164794</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2910,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>27</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C61" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="F61" t="n">
-        <v>8385.535099999999</v>
+        <v>68154.5673</v>
       </c>
       <c r="G61" t="n">
-        <v>76930.68338352056</v>
+        <v>-31327.5330164794</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2952,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>27</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="C62" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="D62" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="E62" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="F62" t="n">
-        <v>9767</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>86697.68338352056</v>
+        <v>-31317.5330164794</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,74 +2994,88 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>27</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.2</v>
+        <v>28.1</v>
       </c>
       <c r="C63" t="n">
-        <v>27.2</v>
+        <v>28.1</v>
       </c>
       <c r="D63" t="n">
-        <v>27.2</v>
+        <v>28.1</v>
       </c>
       <c r="E63" t="n">
-        <v>27.2</v>
+        <v>28.1</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>1583.0765</v>
       </c>
       <c r="G63" t="n">
-        <v>86687.68338352056</v>
+        <v>-32900.6095164794</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>27</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M63" t="n">
-        <v>1</v>
-      </c>
+        <v>1.035740740740741</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E64" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="F64" t="n">
-        <v>64869.5929</v>
+        <v>981.7024</v>
       </c>
       <c r="G64" t="n">
-        <v>151557.2762835206</v>
+        <v>-33882.3119164794</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +3083,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E65" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="F65" t="n">
-        <v>123724.0001</v>
+        <v>16388.9445</v>
       </c>
       <c r="G65" t="n">
-        <v>27833.27618352056</v>
+        <v>-33882.3119164794</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,34 +3119,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="D66" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="E66" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F66" t="n">
-        <v>1610.1071</v>
+        <v>2600</v>
       </c>
       <c r="G66" t="n">
-        <v>29443.38328352056</v>
+        <v>-31282.3119164794</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,34 +3155,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="C67" t="n">
-        <v>27.2</v>
+        <v>28.3</v>
       </c>
       <c r="D67" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="E67" t="n">
-        <v>27.2</v>
+        <v>28.1</v>
       </c>
       <c r="F67" t="n">
-        <v>34253.0818</v>
+        <v>1510</v>
       </c>
       <c r="G67" t="n">
-        <v>-4809.698516479439</v>
+        <v>-29772.3119164794</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,34 +3191,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.7</v>
+        <v>28.3</v>
       </c>
       <c r="C68" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="E68" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>249828.441</v>
       </c>
       <c r="G68" t="n">
-        <v>-4799.698516479439</v>
+        <v>-279600.7529164794</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,34 +3227,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="C69" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
-        <v>27.7</v>
+        <v>28.3</v>
       </c>
       <c r="E69" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F69" t="n">
-        <v>64479.5992</v>
+        <v>67882.13800000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-69279.29771647943</v>
+        <v>-279600.7529164794</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,34 +3263,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="C70" t="n">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="D70" t="n">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="E70" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="F70" t="n">
-        <v>1527.2152</v>
+        <v>25061.9586</v>
       </c>
       <c r="G70" t="n">
-        <v>-67752.08251647942</v>
+        <v>-254538.7943164794</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,34 +3299,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="C71" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="D71" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="E71" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="F71" t="n">
-        <v>27992.2242</v>
+        <v>697</v>
       </c>
       <c r="G71" t="n">
-        <v>-95744.30671647942</v>
+        <v>-254538.7943164794</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,34 +3335,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C72" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="E72" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F72" t="n">
-        <v>35000</v>
+        <v>51370.1659</v>
       </c>
       <c r="G72" t="n">
-        <v>-95744.30671647942</v>
+        <v>-305908.9602164794</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,28 +3371,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="C73" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D73" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="E73" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F73" t="n">
-        <v>29829.4445</v>
+        <v>17113.3798</v>
       </c>
       <c r="G73" t="n">
-        <v>-95744.30671647942</v>
+        <v>-305908.9602164794</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,34 +3407,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="C74" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="D74" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="E74" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F74" t="n">
-        <v>11718.6976</v>
+        <v>20020</v>
       </c>
       <c r="G74" t="n">
-        <v>-95744.30671647942</v>
+        <v>-285888.9602164794</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,34 +3443,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C75" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D75" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E75" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F75" t="n">
-        <v>1872.4149</v>
+        <v>53835.2209</v>
       </c>
       <c r="G75" t="n">
-        <v>-95744.30671647942</v>
+        <v>-339724.1811164794</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,34 +3479,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C76" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D76" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E76" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F76" t="n">
-        <v>34323.1029</v>
+        <v>49223.5243</v>
       </c>
       <c r="G76" t="n">
-        <v>-95744.30671647942</v>
+        <v>-388947.7054164794</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,34 +3515,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C77" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D77" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E77" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F77" t="n">
-        <v>12700</v>
+        <v>50007.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>-108444.3067164794</v>
+        <v>-338939.7055164794</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,28 +3551,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C78" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D78" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E78" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F78" t="n">
-        <v>4007.557</v>
+        <v>26251.2972</v>
       </c>
       <c r="G78" t="n">
-        <v>-108444.3067164794</v>
+        <v>-338939.7055164794</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3587,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C79" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D79" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E79" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F79" t="n">
-        <v>5809.6609</v>
+        <v>146587.964</v>
       </c>
       <c r="G79" t="n">
-        <v>-108444.3067164794</v>
+        <v>-485527.6695164794</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,13 +3623,14 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C80" t="n">
         <v>27.6</v>
@@ -3172,13 +3639,13 @@
         <v>27.6</v>
       </c>
       <c r="E80" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>18115.942</v>
       </c>
       <c r="G80" t="n">
-        <v>-108284.3067164794</v>
+        <v>-485527.6695164794</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3659,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C81" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D81" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E81" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F81" t="n">
-        <v>3090.3327</v>
+        <v>18115.942</v>
       </c>
       <c r="G81" t="n">
-        <v>-105193.9740164794</v>
+        <v>-485527.6695164794</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3695,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C82" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D82" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E82" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F82" t="n">
-        <v>49</v>
+        <v>39999.579</v>
       </c>
       <c r="G82" t="n">
-        <v>-105242.9740164794</v>
+        <v>-485527.6695164794</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3731,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C83" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D83" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E83" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F83" t="n">
-        <v>78074.3547</v>
+        <v>4096.1986</v>
       </c>
       <c r="G83" t="n">
-        <v>-183317.3287164794</v>
+        <v>-481431.4709164794</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3767,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C84" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D84" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E84" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F84" t="n">
-        <v>66983.51459999999</v>
+        <v>73536.3729</v>
       </c>
       <c r="G84" t="n">
-        <v>-116333.8141164794</v>
+        <v>-481431.4709164794</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3803,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C85" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D85" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E85" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F85" t="n">
-        <v>29995.9706</v>
+        <v>54642</v>
       </c>
       <c r="G85" t="n">
-        <v>-116333.8141164794</v>
+        <v>-481431.4709164794</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3839,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C86" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D86" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E86" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>63263.7688</v>
       </c>
       <c r="G86" t="n">
-        <v>-116323.8141164794</v>
+        <v>-481431.4709164794</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3875,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C87" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D87" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E87" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F87" t="n">
-        <v>19220.4029</v>
+        <v>39775.0001</v>
       </c>
       <c r="G87" t="n">
-        <v>-135544.2170164794</v>
+        <v>-521206.4710164794</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3911,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C88" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D88" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E88" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F88" t="n">
-        <v>12265.7554</v>
+        <v>36241.8841</v>
       </c>
       <c r="G88" t="n">
-        <v>-147809.9724164794</v>
+        <v>-521206.4710164794</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3947,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C89" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="D89" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E89" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="F89" t="n">
-        <v>36200</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-147809.9724164794</v>
+        <v>-521196.4710164794</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3983,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C90" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D90" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E90" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F90" t="n">
-        <v>905.9773</v>
+        <v>146.8538</v>
       </c>
       <c r="G90" t="n">
-        <v>-146903.9951164794</v>
+        <v>-521343.3248164793</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +4019,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C91" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="D91" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E91" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="F91" t="n">
-        <v>631.3891</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-147535.3842164794</v>
+        <v>-521333.3248164793</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +4055,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C92" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D92" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E92" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F92" t="n">
-        <v>4605.9773</v>
+        <v>32364.0834</v>
       </c>
       <c r="G92" t="n">
-        <v>-142929.4069164794</v>
+        <v>-553697.4082164794</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,6 +4091,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3621,19 +4101,19 @@
         <v>27.6</v>
       </c>
       <c r="C93" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D93" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E93" t="n">
         <v>27.6</v>
       </c>
       <c r="F93" t="n">
-        <v>2091.9536</v>
+        <v>5786.123188405797</v>
       </c>
       <c r="G93" t="n">
-        <v>-140837.4533164794</v>
+        <v>-559483.5314048851</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +4127,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C94" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D94" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E94" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F94" t="n">
-        <v>7029.8157</v>
+        <v>90225.7564</v>
       </c>
       <c r="G94" t="n">
-        <v>-140837.4533164794</v>
+        <v>-649709.2878048851</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +4163,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C95" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D95" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E95" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F95" t="n">
-        <v>25936.1757</v>
+        <v>9534.2829</v>
       </c>
       <c r="G95" t="n">
-        <v>-114901.2776164794</v>
+        <v>-640175.0049048851</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +4199,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C96" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D96" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E96" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F96" t="n">
-        <v>8563.000099999999</v>
+        <v>1725.3055</v>
       </c>
       <c r="G96" t="n">
-        <v>-114901.2776164794</v>
+        <v>-641900.3104048851</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +4235,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C97" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D97" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E97" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F97" t="n">
-        <v>27815.1617</v>
+        <v>20</v>
       </c>
       <c r="G97" t="n">
-        <v>-114901.2776164794</v>
+        <v>-641880.3104048851</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +4271,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C98" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D98" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E98" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F98" t="n">
-        <v>851.7436</v>
+        <v>141254.2882</v>
       </c>
       <c r="G98" t="n">
-        <v>-115753.0212164794</v>
+        <v>-783134.5986048852</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +4307,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C99" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D99" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E99" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F99" t="n">
-        <v>39714.3573</v>
+        <v>3878</v>
       </c>
       <c r="G99" t="n">
-        <v>-115753.0212164794</v>
+        <v>-779256.5986048852</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +4343,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C100" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="D100" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E100" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="F100" t="n">
-        <v>33807.6592</v>
+        <v>689.5094</v>
       </c>
       <c r="G100" t="n">
-        <v>-81945.3620164794</v>
+        <v>-779946.1080048851</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4379,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C101" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="D101" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="E101" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="F101" t="n">
-        <v>50617.829</v>
+        <v>36675.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>-31327.5330164794</v>
+        <v>-743270.1081048851</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4415,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="C102" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D102" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F102" t="n">
-        <v>84136.357</v>
+        <v>43831.4057</v>
       </c>
       <c r="G102" t="n">
-        <v>-31327.5330164794</v>
+        <v>-699438.7024048851</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4451,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="C103" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D103" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E103" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F103" t="n">
-        <v>68154.5673</v>
+        <v>16500</v>
       </c>
       <c r="G103" t="n">
-        <v>-31327.5330164794</v>
+        <v>-699438.7024048851</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4487,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="C104" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="D104" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="E104" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>64745.324</v>
       </c>
       <c r="G104" t="n">
-        <v>-31317.5330164794</v>
+        <v>-764184.0264048851</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,34 +4523,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="C105" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="D105" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="E105" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="F105" t="n">
-        <v>1583.0765</v>
+        <v>127773.7258</v>
       </c>
       <c r="G105" t="n">
-        <v>-32900.6095164794</v>
+        <v>-764184.0264048851</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4067,28 +4559,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="C106" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D106" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E106" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F106" t="n">
-        <v>981.7024</v>
+        <v>36764.6691</v>
       </c>
       <c r="G106" t="n">
-        <v>-33882.3119164794</v>
+        <v>-764184.0264048851</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4595,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="C107" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E107" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F107" t="n">
-        <v>16388.9445</v>
+        <v>58031.5064</v>
       </c>
       <c r="G107" t="n">
-        <v>-33882.3119164794</v>
+        <v>-764184.0264048851</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,1558 +4631,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>28</v>
-      </c>
-      <c r="C108" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>28</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2600</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-31282.3119164794</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D109" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1510</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-29772.3119164794</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C110" t="n">
-        <v>28</v>
-      </c>
-      <c r="D110" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>28</v>
-      </c>
-      <c r="F110" t="n">
-        <v>249828.441</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-279600.7529164794</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>28</v>
-      </c>
-      <c r="D111" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E111" t="n">
-        <v>28</v>
-      </c>
-      <c r="F111" t="n">
-        <v>67882.13800000001</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-279600.7529164794</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>28</v>
-      </c>
-      <c r="F112" t="n">
-        <v>25061.9586</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-254538.7943164794</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E113" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>697</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-254538.7943164794</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>28</v>
-      </c>
-      <c r="C114" t="n">
-        <v>28</v>
-      </c>
-      <c r="D114" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E114" t="n">
-        <v>28</v>
-      </c>
-      <c r="F114" t="n">
-        <v>51370.1659</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-305908.9602164794</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>28</v>
-      </c>
-      <c r="D115" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>28</v>
-      </c>
-      <c r="F115" t="n">
-        <v>17113.3798</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-305908.9602164794</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>28</v>
-      </c>
-      <c r="F116" t="n">
-        <v>20020</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-285888.9602164794</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>28</v>
-      </c>
-      <c r="C117" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D117" t="n">
-        <v>28</v>
-      </c>
-      <c r="E117" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>53835.2209</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-339724.1811164794</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F118" t="n">
-        <v>49223.5243</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-388947.7054164794</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D119" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E119" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>50007.9999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-338939.7055164794</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F120" t="n">
-        <v>26251.2972</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-338939.7055164794</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C121" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E121" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F121" t="n">
-        <v>146587.964</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C122" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D122" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E122" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F122" t="n">
-        <v>18115.942</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C123" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E123" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F123" t="n">
-        <v>18115.942</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C124" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D124" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E124" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>39999.579</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4096.1986</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>73536.3729</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E127" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>54642</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>63263.7688</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E129" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>39775.0001</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-521206.4710164794</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>36241.8841</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-521206.4710164794</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-521196.4710164794</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>146.8538</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-521343.3248164793</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-521333.3248164793</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F134" t="n">
-        <v>32364.0834</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-553697.4082164794</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D135" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>5786.123188405797</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-559483.5314048851</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D136" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F136" t="n">
-        <v>90225.7564</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-649709.2878048851</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F137" t="n">
-        <v>9534.2829</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-640175.0049048851</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1725.3055</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-641900.3104048851</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>20</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-641880.3104048851</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>141254.2882</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-783134.5986048852</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3878</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-779256.5986048852</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>689.5094</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-779946.1080048851</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F143" t="n">
-        <v>36675.9999</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-743270.1081048851</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>43831.4057</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-699438.7024048851</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>16500</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-699438.7024048851</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>64745.324</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>127773.7258</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>36764.6691</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>58031.5064</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,16 @@
         <v>27.1</v>
       </c>
       <c r="D2" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E2" t="n">
         <v>27.1</v>
       </c>
       <c r="F2" t="n">
-        <v>1067</v>
+        <v>12132.8526</v>
       </c>
       <c r="G2" t="n">
-        <v>6282.485083520574</v>
+        <v>189031.3902</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E3" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F3" t="n">
-        <v>895</v>
+        <v>1613.5243</v>
       </c>
       <c r="G3" t="n">
-        <v>7177.485083520574</v>
+        <v>189031.3902</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>27.1</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D4" t="n">
         <v>27.1</v>
@@ -522,10 +522,10 @@
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>1593.774</v>
+        <v>7928.1842</v>
       </c>
       <c r="G4" t="n">
-        <v>5583.711083520575</v>
+        <v>189031.3902</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -552,16 +552,16 @@
         <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>41333.7571</v>
+        <v>1304.4237</v>
       </c>
       <c r="G5" t="n">
-        <v>5583.711083520575</v>
+        <v>187726.9665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C6" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E6" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>8796.296</v>
+        <v>736</v>
       </c>
       <c r="G6" t="n">
-        <v>14380.00708352058</v>
+        <v>187726.9665</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>27</v>
-      </c>
-      <c r="K6" t="n">
-        <v>27</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -622,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>50000</v>
+        <v>5965.235</v>
       </c>
       <c r="G7" t="n">
-        <v>-35619.99291647942</v>
+        <v>187726.9665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,358 +642,308 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>27</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21030.8025</v>
+      </c>
+      <c r="G8" t="n">
+        <v>187726.9665</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="n">
+        <v>187726.9665</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2734.6839</v>
+      </c>
+      <c r="G10" t="n">
+        <v>184992.2826</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2729.8394</v>
+      </c>
+      <c r="G11" t="n">
+        <v>182262.4432</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9830.0519</v>
+      </c>
+      <c r="G12" t="n">
+        <v>172432.3913</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9363.295</v>
+      </c>
+      <c r="G13" t="n">
+        <v>172432.3913</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1402.4273</v>
+      </c>
+      <c r="G14" t="n">
+        <v>171029.964</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1699.6922</v>
+      </c>
+      <c r="G15" t="n">
+        <v>171029.964</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>27</v>
-      </c>
-      <c r="C8" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>27</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10661.267</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-35619.99291647942</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>27</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>27</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12462.075</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-48082.06791647943</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>27</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>27</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8796.296</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-48082.06791647943</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>27</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>27</v>
-      </c>
-      <c r="F11" t="n">
-        <v>110871.3919</v>
-      </c>
-      <c r="G11" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>27</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>55347.1966</v>
-      </c>
-      <c r="G12" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>27</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>27</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14158.7065</v>
-      </c>
-      <c r="G14" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>27</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>20719.8645</v>
-      </c>
-      <c r="G15" t="n">
-        <v>83509.18848352057</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>27</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,22 +954,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="D16" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="E16" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F16" t="n">
-        <v>1586.9999</v>
+        <v>1083.9864</v>
       </c>
       <c r="G16" t="n">
-        <v>83509.18848352057</v>
+        <v>171029.964</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1032,14 +978,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="K16" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1052,22 +998,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D17" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E17" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F17" t="n">
-        <v>14964.0402</v>
+        <v>4046.3947</v>
       </c>
       <c r="G17" t="n">
-        <v>68545.14828352057</v>
+        <v>175076.3587</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1076,16 +1022,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="K17" t="n">
-        <v>27</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.6</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1096,22 +1038,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="C18" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D18" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E18" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>7812.2374</v>
       </c>
       <c r="G18" t="n">
-        <v>68545.14828352057</v>
+        <v>175076.3587</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1120,14 +1062,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="K18" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1140,22 +1082,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="C19" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D19" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E19" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="F19" t="n">
-        <v>8385.535099999999</v>
+        <v>1619.3863</v>
       </c>
       <c r="G19" t="n">
-        <v>76930.68338352056</v>
+        <v>175076.3587</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1164,14 +1106,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="K19" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1184,40 +1126,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C20" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D20" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E20" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F20" t="n">
-        <v>9767</v>
+        <v>872.7807</v>
       </c>
       <c r="G20" t="n">
-        <v>86697.68338352056</v>
+        <v>175076.3587</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>27</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1228,40 +1162,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="C21" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="D21" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="E21" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>10124.0601</v>
       </c>
       <c r="G21" t="n">
-        <v>86687.68338352056</v>
+        <v>164952.2986</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>27</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1272,22 +1198,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="C22" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="D22" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="E22" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F22" t="n">
-        <v>64869.5929</v>
+        <v>11269.7467</v>
       </c>
       <c r="G22" t="n">
-        <v>151557.2762835206</v>
+        <v>164952.2986</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1296,16 +1222,12 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="K22" t="n">
-        <v>27</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.6</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1316,22 +1238,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="C23" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="D23" t="n">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="E23" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F23" t="n">
-        <v>123724.0001</v>
+        <v>21310.9853</v>
       </c>
       <c r="G23" t="n">
-        <v>27833.27618352056</v>
+        <v>164952.2986</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1340,14 +1262,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="K23" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1360,36 +1282,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C24" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D24" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E24" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1610.1071</v>
+        <v>9600</v>
       </c>
       <c r="G24" t="n">
-        <v>29443.38328352056</v>
+        <v>174552.2986</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>26.6</v>
+      </c>
       <c r="K24" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1402,38 +1326,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="C25" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="D25" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="E25" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="F25" t="n">
-        <v>34253.0818</v>
+        <v>3881.3229</v>
       </c>
       <c r="G25" t="n">
-        <v>-4809.698516479439</v>
+        <v>170670.9757</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K25" t="n">
-        <v>27</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.7</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1444,36 +1366,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="C26" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="D26" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="E26" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>37.45318352059925</v>
       </c>
       <c r="G26" t="n">
-        <v>-4799.698516479439</v>
+        <v>170708.4288835206</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K26" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1486,36 +1410,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="C27" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D27" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="E27" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F27" t="n">
-        <v>64479.5992</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-69279.29771647943</v>
+        <v>170708.4288835206</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K27" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1528,22 +1454,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="C28" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="D28" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="E28" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="F28" t="n">
-        <v>1527.2152</v>
+        <v>611.1609999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-67752.08251647942</v>
+        <v>170708.4288835206</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1552,14 +1478,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>27</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1570,22 +1490,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C29" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D29" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E29" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F29" t="n">
-        <v>27992.2242</v>
+        <v>7895.508</v>
       </c>
       <c r="G29" t="n">
-        <v>-95744.30671647942</v>
+        <v>170708.4288835206</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1594,14 +1514,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>27</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1612,22 +1526,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C30" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D30" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E30" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F30" t="n">
-        <v>35000</v>
+        <v>0.0001</v>
       </c>
       <c r="G30" t="n">
-        <v>-95744.30671647942</v>
+        <v>170708.4288835206</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1636,14 +1550,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>27</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1654,22 +1562,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="D31" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="F31" t="n">
-        <v>29829.4445</v>
+        <v>297919.2222</v>
       </c>
       <c r="G31" t="n">
-        <v>-95744.30671647942</v>
+        <v>-127210.7933164794</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1678,14 +1586,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>27</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1696,22 +1598,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C32" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D32" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E32" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F32" t="n">
-        <v>11718.6976</v>
+        <v>38702.4641</v>
       </c>
       <c r="G32" t="n">
-        <v>-95744.30671647942</v>
+        <v>-88508.32921647943</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1720,14 +1622,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>27</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1738,22 +1634,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E33" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F33" t="n">
-        <v>1872.4149</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-95744.30671647942</v>
+        <v>-88498.32921647943</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1762,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>27</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1670,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C34" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D34" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E34" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F34" t="n">
-        <v>34323.1029</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>-95744.30671647942</v>
+        <v>-88598.32921647943</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1804,14 +1694,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>27</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1822,22 +1706,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="C35" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D35" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E35" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F35" t="n">
-        <v>12700</v>
+        <v>120</v>
       </c>
       <c r="G35" t="n">
-        <v>-108444.3067164794</v>
+        <v>-88598.32921647943</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1846,14 +1730,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>27</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1864,22 +1742,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="C36" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="D36" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E36" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="F36" t="n">
-        <v>4007.557</v>
+        <v>11802.2928</v>
       </c>
       <c r="G36" t="n">
-        <v>-108444.3067164794</v>
+        <v>-100400.6220164794</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1888,14 +1766,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>27</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1906,40 +1778,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D37" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E37" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="F37" t="n">
-        <v>5809.6609</v>
+        <v>67673.51850000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-108444.3067164794</v>
+        <v>-168074.1405164794</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>27</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1950,40 +1814,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="C38" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="D38" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="E38" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="F38" t="n">
-        <v>160</v>
+        <v>547.8865</v>
       </c>
       <c r="G38" t="n">
-        <v>-108284.3067164794</v>
+        <v>-167526.2540164794</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>27</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1994,40 +1850,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="C39" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="D39" t="n">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="E39" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F39" t="n">
-        <v>3090.3327</v>
+        <v>23245.5234</v>
       </c>
       <c r="G39" t="n">
-        <v>-105193.9740164794</v>
+        <v>-190771.7774164795</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>27</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1886,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C40" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D40" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E40" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F40" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-105242.9740164794</v>
+        <v>-190761.7774164795</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2062,14 +1910,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>27</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2080,40 +1922,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="C41" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D41" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E41" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="F41" t="n">
-        <v>78074.3547</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>-183317.3287164794</v>
+        <v>-190776.7774164795</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>27</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2124,40 +1958,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C42" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D42" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E42" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F42" t="n">
-        <v>66983.51459999999</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>-116333.8141164794</v>
+        <v>-190765.7774164795</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>27</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2168,40 +1994,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C43" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D43" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E43" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F43" t="n">
-        <v>29995.9706</v>
+        <v>55087.0925</v>
       </c>
       <c r="G43" t="n">
-        <v>-116333.8141164794</v>
+        <v>-190765.7774164795</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>27</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2212,40 +2030,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="C44" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E44" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>22011.2965</v>
       </c>
       <c r="G44" t="n">
-        <v>-116323.8141164794</v>
+        <v>-168754.4809164795</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>27</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2256,22 +2066,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C45" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E45" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F45" t="n">
-        <v>19220.4029</v>
+        <v>876.7648</v>
       </c>
       <c r="G45" t="n">
-        <v>-135544.2170164794</v>
+        <v>-168754.4809164795</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2280,14 +2090,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>27</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2298,22 +2102,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E46" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F46" t="n">
-        <v>12265.7554</v>
+        <v>51659.9629</v>
       </c>
       <c r="G46" t="n">
-        <v>-147809.9724164794</v>
+        <v>-168754.4809164795</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2322,14 +2126,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>27</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2340,22 +2138,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C47" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D47" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E47" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F47" t="n">
-        <v>36200</v>
+        <v>552</v>
       </c>
       <c r="G47" t="n">
-        <v>-147809.9724164794</v>
+        <v>-168202.4809164795</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2364,14 +2162,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>27</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2174,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C48" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D48" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E48" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F48" t="n">
-        <v>905.9773</v>
+        <v>140.214</v>
       </c>
       <c r="G48" t="n">
-        <v>-146903.9951164794</v>
+        <v>-168202.4809164795</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2406,14 +2198,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>27</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2424,22 +2210,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E49" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F49" t="n">
-        <v>631.3891</v>
+        <v>57298.1581</v>
       </c>
       <c r="G49" t="n">
-        <v>-147535.3842164794</v>
+        <v>-225500.6390164795</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2448,14 +2234,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>27</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2466,22 +2246,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C50" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="D50" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="E50" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F50" t="n">
-        <v>4605.9773</v>
+        <v>84390.0886</v>
       </c>
       <c r="G50" t="n">
-        <v>-142929.4069164794</v>
+        <v>-141110.5504164795</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2490,14 +2270,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>27</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2508,22 +2282,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="C51" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D51" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E51" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="F51" t="n">
-        <v>2091.9536</v>
+        <v>50028.0277</v>
       </c>
       <c r="G51" t="n">
-        <v>-140837.4533164794</v>
+        <v>-141110.5504164795</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2532,14 +2306,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>27</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2550,22 +2318,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C52" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D52" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E52" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F52" t="n">
-        <v>7029.8157</v>
+        <v>59647.3119</v>
       </c>
       <c r="G52" t="n">
-        <v>-140837.4533164794</v>
+        <v>-81463.23851647947</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2574,14 +2342,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>27</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2592,22 +2354,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C53" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E53" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F53" t="n">
-        <v>25936.1757</v>
+        <v>130970.7393</v>
       </c>
       <c r="G53" t="n">
-        <v>-114901.2776164794</v>
+        <v>-212433.9778164795</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2616,14 +2378,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>27</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2390,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C54" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E54" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F54" t="n">
-        <v>8563.000099999999</v>
+        <v>2836.482</v>
       </c>
       <c r="G54" t="n">
-        <v>-114901.2776164794</v>
+        <v>-212433.9778164795</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2658,14 +2414,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>27</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2676,22 +2426,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="C55" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="D55" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="E55" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="F55" t="n">
-        <v>27815.1617</v>
+        <v>639.6257000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-114901.2776164794</v>
+        <v>-211794.3521164795</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2700,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>27</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2718,22 +2462,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C56" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D56" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E56" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F56" t="n">
-        <v>851.7436</v>
+        <v>901.829</v>
       </c>
       <c r="G56" t="n">
-        <v>-115753.0212164794</v>
+        <v>-211794.3521164795</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2742,14 +2486,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>27</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2760,22 +2498,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C57" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D57" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E57" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F57" t="n">
-        <v>39714.3573</v>
+        <v>856.7375</v>
       </c>
       <c r="G57" t="n">
-        <v>-115753.0212164794</v>
+        <v>-211794.3521164795</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2784,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>27</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2802,22 +2534,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="C58" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="D58" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="E58" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="F58" t="n">
-        <v>33807.6592</v>
+        <v>2398.192</v>
       </c>
       <c r="G58" t="n">
-        <v>-81945.3620164794</v>
+        <v>-211794.3521164795</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2826,14 +2558,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>27</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2844,22 +2570,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="C59" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D59" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E59" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="F59" t="n">
-        <v>50617.829</v>
+        <v>8915.441000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-31327.5330164794</v>
+        <v>-211794.3521164795</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2868,14 +2594,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>27</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +2606,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E60" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F60" t="n">
-        <v>84136.357</v>
+        <v>26624.1945</v>
       </c>
       <c r="G60" t="n">
-        <v>-31327.5330164794</v>
+        <v>-211794.3521164795</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2910,14 +2630,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>27</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2928,22 +2642,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="C61" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D61" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E61" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F61" t="n">
-        <v>68154.5673</v>
+        <v>26905.0056</v>
       </c>
       <c r="G61" t="n">
-        <v>-31327.5330164794</v>
+        <v>-211794.3521164795</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2952,14 +2666,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>27</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2970,22 +2678,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="C62" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="D62" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="E62" t="n">
-        <v>28.3</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>272082.3069</v>
       </c>
       <c r="G62" t="n">
-        <v>-31317.5330164794</v>
+        <v>60287.95478352057</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2994,14 +2702,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>27</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3012,40 +2714,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="C63" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="D63" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="E63" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="F63" t="n">
-        <v>1583.0765</v>
+        <v>8130.3447</v>
       </c>
       <c r="G63" t="n">
-        <v>-32900.6095164794</v>
+        <v>52157.61008352057</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>27</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>1.035740740740741</v>
+        <v>1</v>
       </c>
       <c r="N63" t="inlineStr"/>
     </row>
@@ -3054,28 +2750,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E64" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="F64" t="n">
-        <v>981.7024</v>
+        <v>7899</v>
       </c>
       <c r="G64" t="n">
-        <v>-33882.3119164794</v>
+        <v>60056.61008352057</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -3090,28 +2786,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="D65" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E65" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="F65" t="n">
-        <v>16388.9445</v>
+        <v>5250.4117</v>
       </c>
       <c r="G65" t="n">
-        <v>-33882.3119164794</v>
+        <v>60056.61008352057</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3126,28 +2822,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="C66" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="D66" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="E66" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F66" t="n">
-        <v>2600</v>
+        <v>12686.1694</v>
       </c>
       <c r="G66" t="n">
-        <v>-31282.3119164794</v>
+        <v>47370.44068352057</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3162,28 +2858,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="C67" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="D67" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="E67" t="n">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="F67" t="n">
-        <v>1510</v>
+        <v>3862.0784</v>
       </c>
       <c r="G67" t="n">
-        <v>-29772.3119164794</v>
+        <v>51232.51908352057</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3198,28 +2894,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D68" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E68" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F68" t="n">
-        <v>249828.441</v>
+        <v>27653.5244</v>
       </c>
       <c r="G68" t="n">
-        <v>-279600.7529164794</v>
+        <v>23578.99468352057</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3234,28 +2930,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D69" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="E69" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F69" t="n">
-        <v>67882.13800000001</v>
+        <v>5402.5929</v>
       </c>
       <c r="G69" t="n">
-        <v>-279600.7529164794</v>
+        <v>23578.99468352057</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3270,28 +2966,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="C70" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="D70" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F70" t="n">
-        <v>25061.9586</v>
+        <v>9244.772300000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-254538.7943164794</v>
+        <v>23578.99468352057</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3306,28 +3002,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="C71" t="n">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="D71" t="n">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="E71" t="n">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="F71" t="n">
-        <v>697</v>
+        <v>16733.123</v>
       </c>
       <c r="G71" t="n">
-        <v>-254538.7943164794</v>
+        <v>6845.871683520574</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3342,28 +3038,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="E72" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F72" t="n">
-        <v>51370.1659</v>
+        <v>1630.3866</v>
       </c>
       <c r="G72" t="n">
-        <v>-305908.9602164794</v>
+        <v>5215.485083520574</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3378,22 +3074,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="C73" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="D73" t="n">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="E73" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>17113.3798</v>
+        <v>1067</v>
       </c>
       <c r="G73" t="n">
-        <v>-305908.9602164794</v>
+        <v>6282.485083520574</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3414,28 +3110,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="C74" t="n">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="D74" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="E74" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="F74" t="n">
-        <v>20020</v>
+        <v>895</v>
       </c>
       <c r="G74" t="n">
-        <v>-285888.9602164794</v>
+        <v>7177.485083520574</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3450,28 +3146,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="C75" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="E75" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F75" t="n">
-        <v>53835.2209</v>
+        <v>1593.774</v>
       </c>
       <c r="G75" t="n">
-        <v>-339724.1811164794</v>
+        <v>5583.711083520575</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3486,28 +3182,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="C76" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E76" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F76" t="n">
-        <v>49223.5243</v>
+        <v>41333.7571</v>
       </c>
       <c r="G76" t="n">
-        <v>-388947.7054164794</v>
+        <v>5583.711083520575</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3522,28 +3218,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C77" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="D77" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="E77" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F77" t="n">
-        <v>50007.9999</v>
+        <v>8796.296</v>
       </c>
       <c r="G77" t="n">
-        <v>-338939.7055164794</v>
+        <v>14380.00708352058</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3558,22 +3254,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C78" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="D78" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="E78" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="F78" t="n">
-        <v>26251.2972</v>
+        <v>50000</v>
       </c>
       <c r="G78" t="n">
-        <v>-338939.7055164794</v>
+        <v>-35619.99291647942</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3594,22 +3290,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="C79" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="D79" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="E79" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F79" t="n">
-        <v>146587.964</v>
+        <v>10661.267</v>
       </c>
       <c r="G79" t="n">
-        <v>-485527.6695164794</v>
+        <v>-35619.99291647942</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3630,22 +3326,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="C80" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E80" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F80" t="n">
-        <v>18115.942</v>
+        <v>12462.075</v>
       </c>
       <c r="G80" t="n">
-        <v>-485527.6695164794</v>
+        <v>-48082.06791647943</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3666,22 +3362,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="C81" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="E81" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F81" t="n">
-        <v>18115.942</v>
+        <v>8796.296</v>
       </c>
       <c r="G81" t="n">
-        <v>-485527.6695164794</v>
+        <v>-48082.06791647943</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3702,22 +3398,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="C82" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="D82" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="E82" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F82" t="n">
-        <v>39999.579</v>
+        <v>110871.3919</v>
       </c>
       <c r="G82" t="n">
-        <v>-485527.6695164794</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3738,22 +3434,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C83" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D83" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="E83" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F83" t="n">
-        <v>4096.1986</v>
+        <v>55347.1966</v>
       </c>
       <c r="G83" t="n">
-        <v>-481431.4709164794</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3774,22 +3470,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C84" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D84" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E84" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F84" t="n">
-        <v>73536.3729</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-481431.4709164794</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3810,22 +3506,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F85" t="n">
-        <v>54642</v>
+        <v>14158.7065</v>
       </c>
       <c r="G85" t="n">
-        <v>-481431.4709164794</v>
+        <v>62789.32398352057</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3846,22 +3542,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C86" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D86" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E86" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F86" t="n">
-        <v>63263.7688</v>
+        <v>20719.8645</v>
       </c>
       <c r="G86" t="n">
-        <v>-481431.4709164794</v>
+        <v>83509.18848352057</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3882,22 +3578,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C87" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D87" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E87" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="F87" t="n">
-        <v>39775.0001</v>
+        <v>1586.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>-521206.4710164794</v>
+        <v>83509.18848352057</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3918,22 +3614,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="D88" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="F88" t="n">
-        <v>36241.8841</v>
+        <v>14964.0402</v>
       </c>
       <c r="G88" t="n">
-        <v>-521206.4710164794</v>
+        <v>68545.14828352057</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3954,22 +3650,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="C89" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="D89" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="E89" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="F89" t="n">
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-521196.4710164794</v>
+        <v>68545.14828352057</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3990,22 +3686,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C90" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D90" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E90" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F90" t="n">
-        <v>146.8538</v>
+        <v>8385.535099999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-521343.3248164793</v>
+        <v>76930.68338352056</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4026,22 +3722,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C91" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D91" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E91" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>9767</v>
       </c>
       <c r="G91" t="n">
-        <v>-521333.3248164793</v>
+        <v>86697.68338352056</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4062,22 +3758,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C92" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D92" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E92" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F92" t="n">
-        <v>32364.0834</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-553697.4082164794</v>
+        <v>86687.68338352056</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4098,22 +3794,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C93" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D93" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E93" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="F93" t="n">
-        <v>5786.123188405797</v>
+        <v>64869.5929</v>
       </c>
       <c r="G93" t="n">
-        <v>-559483.5314048851</v>
+        <v>151557.2762835206</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4134,22 +3830,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C94" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D94" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E94" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F94" t="n">
-        <v>90225.7564</v>
+        <v>123724.0001</v>
       </c>
       <c r="G94" t="n">
-        <v>-649709.2878048851</v>
+        <v>27833.27618352056</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4170,22 +3866,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C95" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D95" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E95" t="n">
         <v>27.3</v>
       </c>
       <c r="F95" t="n">
-        <v>9534.2829</v>
+        <v>1610.1071</v>
       </c>
       <c r="G95" t="n">
-        <v>-640175.0049048851</v>
+        <v>29443.38328352056</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4206,22 +3902,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C96" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D96" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E96" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F96" t="n">
-        <v>1725.3055</v>
+        <v>34253.0818</v>
       </c>
       <c r="G96" t="n">
-        <v>-641900.3104048851</v>
+        <v>-4809.698516479439</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4242,22 +3938,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C97" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D97" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E97" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-641880.3104048851</v>
+        <v>-4799.698516479439</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4278,22 +3974,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C98" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D98" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E98" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F98" t="n">
-        <v>141254.2882</v>
+        <v>64479.5992</v>
       </c>
       <c r="G98" t="n">
-        <v>-783134.5986048852</v>
+        <v>-69279.29771647943</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4326,10 +4022,10 @@
         <v>27.4</v>
       </c>
       <c r="F99" t="n">
-        <v>3878</v>
+        <v>1527.2152</v>
       </c>
       <c r="G99" t="n">
-        <v>-779256.5986048852</v>
+        <v>-67752.08251647942</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4362,10 +4058,10 @@
         <v>27.3</v>
       </c>
       <c r="F100" t="n">
-        <v>689.5094</v>
+        <v>27992.2242</v>
       </c>
       <c r="G100" t="n">
-        <v>-779946.1080048851</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4386,22 +4082,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>36675.9999</v>
+        <v>35000</v>
       </c>
       <c r="G101" t="n">
-        <v>-743270.1081048851</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4422,22 +4118,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C102" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D102" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E102" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F102" t="n">
-        <v>43831.4057</v>
+        <v>29829.4445</v>
       </c>
       <c r="G102" t="n">
-        <v>-699438.7024048851</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4458,22 +4154,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E103" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F103" t="n">
-        <v>16500</v>
+        <v>11718.6976</v>
       </c>
       <c r="G103" t="n">
-        <v>-699438.7024048851</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4497,19 +4193,19 @@
         <v>27.3</v>
       </c>
       <c r="C104" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D104" t="n">
         <v>27.3</v>
       </c>
       <c r="E104" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F104" t="n">
-        <v>64745.324</v>
+        <v>1872.4149</v>
       </c>
       <c r="G104" t="n">
-        <v>-764184.0264048851</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4530,22 +4226,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C105" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D105" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E105" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F105" t="n">
-        <v>127773.7258</v>
+        <v>34323.1029</v>
       </c>
       <c r="G105" t="n">
-        <v>-764184.0264048851</v>
+        <v>-95744.30671647942</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4578,10 +4274,10 @@
         <v>27.2</v>
       </c>
       <c r="F106" t="n">
-        <v>36764.6691</v>
+        <v>12700</v>
       </c>
       <c r="G106" t="n">
-        <v>-764184.0264048851</v>
+        <v>-108444.3067164794</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4614,10 +4310,10 @@
         <v>27.2</v>
       </c>
       <c r="F107" t="n">
-        <v>58031.5064</v>
+        <v>4007.557</v>
       </c>
       <c r="G107" t="n">
-        <v>-764184.0264048851</v>
+        <v>-108444.3067164794</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4633,6 +4329,2562 @@
       </c>
       <c r="N107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5809.6609</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-108444.3067164794</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>160</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-108284.3067164794</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3090.3327</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-105193.9740164794</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>49</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-105242.9740164794</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>78074.3547</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-183317.3287164794</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>66983.51459999999</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-116333.8141164794</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>29995.9706</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-116333.8141164794</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-116323.8141164794</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>19220.4029</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-135544.2170164794</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12265.7554</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-147809.9724164794</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>36200</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-147809.9724164794</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>905.9773</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-146903.9951164794</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>631.3891</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-147535.3842164794</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4605.9773</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-142929.4069164794</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2091.9536</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-140837.4533164794</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7029.8157</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-140837.4533164794</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25936.1757</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-114901.2776164794</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8563.000099999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-114901.2776164794</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>27815.1617</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-114901.2776164794</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>851.7436</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-115753.0212164794</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>39714.3573</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-115753.0212164794</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>33807.6592</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-81945.3620164794</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>28</v>
+      </c>
+      <c r="D130" t="n">
+        <v>28</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>50617.829</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-31327.5330164794</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>28</v>
+      </c>
+      <c r="C131" t="n">
+        <v>28</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28</v>
+      </c>
+      <c r="E131" t="n">
+        <v>28</v>
+      </c>
+      <c r="F131" t="n">
+        <v>84136.357</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-31327.5330164794</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>28</v>
+      </c>
+      <c r="C132" t="n">
+        <v>28</v>
+      </c>
+      <c r="D132" t="n">
+        <v>28</v>
+      </c>
+      <c r="E132" t="n">
+        <v>28</v>
+      </c>
+      <c r="F132" t="n">
+        <v>68154.5673</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-31327.5330164794</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-31317.5330164794</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1583.0765</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-32900.6095164794</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>28</v>
+      </c>
+      <c r="C135" t="n">
+        <v>28</v>
+      </c>
+      <c r="D135" t="n">
+        <v>28</v>
+      </c>
+      <c r="E135" t="n">
+        <v>28</v>
+      </c>
+      <c r="F135" t="n">
+        <v>981.7024</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-33882.3119164794</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>28</v>
+      </c>
+      <c r="C136" t="n">
+        <v>28</v>
+      </c>
+      <c r="D136" t="n">
+        <v>28</v>
+      </c>
+      <c r="E136" t="n">
+        <v>28</v>
+      </c>
+      <c r="F136" t="n">
+        <v>16388.9445</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-33882.3119164794</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>28</v>
+      </c>
+      <c r="C137" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>28</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-31282.3119164794</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1510</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-29772.3119164794</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>28</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>28</v>
+      </c>
+      <c r="F139" t="n">
+        <v>249828.441</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-279600.7529164794</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>28</v>
+      </c>
+      <c r="D140" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>28</v>
+      </c>
+      <c r="F140" t="n">
+        <v>67882.13800000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-279600.7529164794</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>28</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25061.9586</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-254538.7943164794</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>697</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-254538.7943164794</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>28</v>
+      </c>
+      <c r="C143" t="n">
+        <v>28</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>28</v>
+      </c>
+      <c r="F143" t="n">
+        <v>51370.1659</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-305908.9602164794</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>28</v>
+      </c>
+      <c r="D144" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>28</v>
+      </c>
+      <c r="F144" t="n">
+        <v>17113.3798</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-305908.9602164794</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>28</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20020</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-285888.9602164794</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>28</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>28</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>53835.2209</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-339724.1811164794</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>49223.5243</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-388947.7054164794</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>50007.9999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-338939.7055164794</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>26251.2972</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-338939.7055164794</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>146587.964</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-485527.6695164794</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>18115.942</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-485527.6695164794</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18115.942</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-485527.6695164794</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>39999.579</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-485527.6695164794</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4096.1986</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-481431.4709164794</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>73536.3729</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-481431.4709164794</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>54642</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-481431.4709164794</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>63263.7688</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-481431.4709164794</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>39775.0001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-521206.4710164794</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>36241.8841</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-521206.4710164794</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-521196.4710164794</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>146.8538</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-521343.3248164793</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-521333.3248164793</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>32364.0834</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-553697.4082164794</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5786.123188405797</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-559483.5314048851</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>90225.7564</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-649709.2878048851</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9534.2829</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-640175.0049048851</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1725.3055</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-641900.3104048851</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>20</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-641880.3104048851</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>141254.2882</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-783134.5986048852</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3878</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-779256.5986048852</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>689.5094</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-779946.1080048851</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>36675.9999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-743270.1081048851</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>43831.4057</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-699438.7024048851</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-699438.7024048851</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>64745.324</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-764184.0264048851</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>127773.7258</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-764184.0264048851</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>36764.6691</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-764184.0264048851</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>58031.5064</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-764184.0264048851</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,22 +847,15 @@
         <v>171029.964</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -928,482 +880,416 @@
         <v>171029.964</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>26.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="C16" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1083.9864</v>
+      </c>
+      <c r="G16" t="n">
+        <v>171029.964</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>26.7</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="C17" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4046.3947</v>
+      </c>
+      <c r="G17" t="n">
+        <v>175076.3587</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7812.2374</v>
+      </c>
+      <c r="G18" t="n">
+        <v>175076.3587</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1619.3863</v>
+      </c>
+      <c r="G19" t="n">
+        <v>175076.3587</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>872.7807</v>
+      </c>
+      <c r="G20" t="n">
+        <v>175076.3587</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10124.0601</v>
+      </c>
+      <c r="G21" t="n">
+        <v>164952.2986</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11269.7467</v>
+      </c>
+      <c r="G22" t="n">
+        <v>164952.2986</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>26.6</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C23" t="n">
         <v>26.6</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D23" t="n">
         <v>26.6</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E23" t="n">
         <v>26.6</v>
       </c>
-      <c r="F16" t="n">
-        <v>1083.9864</v>
-      </c>
-      <c r="G16" t="n">
-        <v>171029.964</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="F23" t="n">
+        <v>21310.9853</v>
+      </c>
+      <c r="G23" t="n">
+        <v>164952.2986</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
         <v>26.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="J23" t="n">
         <v>26.7</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>26.7</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C24" t="n">
         <v>26.7</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D24" t="n">
         <v>26.7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E24" t="n">
         <v>26.7</v>
       </c>
-      <c r="F17" t="n">
-        <v>4046.3947</v>
-      </c>
-      <c r="G17" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="F24" t="n">
+        <v>9600</v>
+      </c>
+      <c r="G24" t="n">
+        <v>174552.2986</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
         <v>26.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="J24" t="n">
         <v>26.6</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3881.3229</v>
+      </c>
+      <c r="G25" t="n">
+        <v>170670.9757</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
         <v>26.7</v>
       </c>
-      <c r="C18" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7812.2374</v>
-      </c>
-      <c r="G18" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J25" t="n">
         <v>26.6</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>26.7</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C26" t="n">
         <v>26.7</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D26" t="n">
         <v>26.7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E26" t="n">
         <v>26.7</v>
       </c>
-      <c r="F19" t="n">
-        <v>1619.3863</v>
-      </c>
-      <c r="G19" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="F26" t="n">
+        <v>37.45318352059925</v>
+      </c>
+      <c r="G26" t="n">
+        <v>170708.4288835206</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>26.6</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>872.7807</v>
-      </c>
-      <c r="G20" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10124.0601</v>
-      </c>
-      <c r="G21" t="n">
-        <v>164952.2986</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>11269.7467</v>
-      </c>
-      <c r="G22" t="n">
-        <v>164952.2986</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>21310.9853</v>
-      </c>
-      <c r="G23" t="n">
-        <v>164952.2986</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E24" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9600</v>
-      </c>
-      <c r="G24" t="n">
-        <v>174552.2986</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3881.3229</v>
-      </c>
-      <c r="G25" t="n">
-        <v>170670.9757</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F26" t="n">
-        <v>37.45318352059925</v>
-      </c>
-      <c r="G26" t="n">
-        <v>170708.4288835206</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1428,26 +1314,15 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1474,16 +1349,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1510,16 +1382,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1546,16 +1415,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1582,16 +1448,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,16 +1481,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1654,16 +1514,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1690,16 +1547,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1726,16 +1580,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1762,16 +1613,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1798,16 +1646,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1834,16 +1679,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1870,16 +1712,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1906,16 +1745,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1942,16 +1778,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1978,16 +1811,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2014,16 +1844,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2050,16 +1877,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2086,16 +1910,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2122,16 +1943,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2158,16 +1976,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2194,16 +2009,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2230,16 +2042,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2266,16 +2075,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2302,16 +2108,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2338,16 +2141,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2374,16 +2174,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2410,16 +2207,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2446,16 +2240,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2482,16 +2273,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2518,16 +2306,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2554,16 +2339,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2590,16 +2372,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2626,16 +2405,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2662,16 +2438,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2698,16 +2471,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2734,16 +2504,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2770,16 +2537,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2806,16 +2570,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2842,16 +2603,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2878,16 +2636,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2914,16 +2669,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2950,16 +2702,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2986,16 +2735,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3022,16 +2768,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3058,16 +2801,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3094,16 +2834,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3130,16 +2867,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3166,16 +2900,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3202,16 +2933,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3238,16 +2966,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3274,16 +2999,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3310,16 +3032,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3346,16 +3065,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3382,16 +3098,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3418,16 +3131,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3454,16 +3164,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,16 +3197,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3526,16 +3230,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3562,16 +3263,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3598,16 +3296,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3634,16 +3329,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3670,16 +3362,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3706,16 +3395,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3742,16 +3428,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3778,16 +3461,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3814,16 +3494,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3850,16 +3527,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3886,16 +3560,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3922,16 +3593,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3958,16 +3626,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3994,16 +3659,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4030,16 +3692,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4066,16 +3725,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4102,16 +3758,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4138,16 +3791,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4174,16 +3824,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4210,16 +3857,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4246,16 +3890,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4282,16 +3923,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4318,16 +3956,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4354,16 +3989,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4390,16 +4022,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4426,16 +4055,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4462,16 +4088,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4498,16 +4121,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4534,16 +4154,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4570,16 +4187,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4606,16 +4220,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4642,16 +4253,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4678,16 +4286,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4714,16 +4319,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4750,16 +4352,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4786,16 +4385,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4822,16 +4418,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4858,16 +4451,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4894,16 +4484,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4930,16 +4517,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4966,16 +4550,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5002,16 +4583,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5038,16 +4616,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5074,16 +4649,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5110,16 +4682,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5146,16 +4715,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5182,16 +4748,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5216,18 +4779,15 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5252,18 +4812,15 @@
         <v>-31317.5330164794</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5288,18 +4845,15 @@
         <v>-32900.6095164794</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5324,18 +4878,15 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5360,18 +4911,15 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5396,18 +4944,15 @@
         <v>-31282.3119164794</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5432,18 +4977,15 @@
         <v>-29772.3119164794</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5468,18 +5010,15 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5506,16 +5045,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5540,18 +5076,15 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5576,18 +5109,15 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5612,18 +5142,15 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5650,16 +5177,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5684,18 +5208,15 @@
         <v>-285888.9602164794</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5722,16 +5243,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5758,16 +5276,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5794,16 +5309,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5830,16 +5342,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5866,16 +5375,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5902,16 +5408,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5936,18 +5439,15 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5974,16 +5474,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6008,18 +5505,15 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6046,16 +5540,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6080,18 +5571,15 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6118,16 +5606,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6154,16 +5639,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6190,16 +5672,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6224,18 +5703,15 @@
         <v>-521196.4710164794</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6262,16 +5738,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6298,16 +5771,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6334,16 +5804,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6368,18 +5835,15 @@
         <v>-559483.5314048851</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6406,16 +5870,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6442,16 +5903,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6478,16 +5936,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6514,16 +5969,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6550,16 +6002,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6586,16 +6035,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6622,16 +6068,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6658,16 +6101,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6694,16 +6134,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6730,16 +6167,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6766,16 +6200,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6802,16 +6233,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6838,16 +6266,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6874,18 +6299,15 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,14 +1078,10 @@
         <v>164952.2986</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1115,19 +1111,11 @@
         <v>164952.2986</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1156,19 +1144,11 @@
         <v>164952.2986</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,7 +1177,7 @@
         <v>174552.2986</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>26.6</v>
@@ -1234,11 +1214,9 @@
         <v>170670.9757</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>26.6</v>
       </c>
@@ -2337,10 +2315,14 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2373,8 +2355,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2403,11 +2391,19 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2436,10 +2432,14 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2469,11 +2469,19 @@
         <v>60287.95478352057</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2505,8 +2513,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2538,8 +2552,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2571,8 +2591,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2604,8 +2630,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2637,8 +2669,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2670,8 +2708,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2703,8 +2747,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2736,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2769,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2835,8 +2903,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2868,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2901,8 +2981,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2934,8 +3020,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2967,8 +3059,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3000,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3033,8 +3137,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3066,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3099,8 +3215,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3132,8 +3254,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3165,8 +3293,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3198,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3231,8 +3371,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3264,8 +3410,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3297,8 +3449,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3330,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3363,8 +3527,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3396,8 +3566,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3429,8 +3605,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3462,8 +3644,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3495,8 +3683,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3528,8 +3722,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3561,8 +3761,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3594,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3627,8 +3839,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3660,8 +3878,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3693,8 +3917,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3723,13 +3953,19 @@
         <v>-95744.30671647942</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0.9986764705882353</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -3789,7 +4025,7 @@
         <v>-95744.30671647942</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3822,7 +4058,7 @@
         <v>-95744.30671647942</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4053,7 +4289,7 @@
         <v>-105193.9740164794</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4086,7 +4322,7 @@
         <v>-105242.9740164794</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4482,7 +4718,7 @@
         <v>-140837.4533164794</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4614,7 +4850,7 @@
         <v>-115753.0212164794</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4680,7 +4916,7 @@
         <v>-81945.3620164794</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4713,7 +4949,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4746,7 +4982,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4779,7 +5015,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4812,7 +5048,7 @@
         <v>-31317.5330164794</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4845,7 +5081,7 @@
         <v>-32900.6095164794</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4878,7 +5114,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4911,7 +5147,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4944,7 +5180,7 @@
         <v>-31282.3119164794</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4977,7 +5213,7 @@
         <v>-29772.3119164794</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5010,7 +5246,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5043,7 +5279,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5076,7 +5312,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5109,7 +5345,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5142,7 +5378,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5175,7 +5411,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5208,7 +5444,7 @@
         <v>-285888.9602164794</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5241,7 +5477,7 @@
         <v>-339724.1811164794</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5274,7 +5510,7 @@
         <v>-388947.7054164794</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5307,7 +5543,7 @@
         <v>-338939.7055164794</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5340,7 +5576,7 @@
         <v>-338939.7055164794</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5373,7 +5609,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5406,7 +5642,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5439,7 +5675,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5472,7 +5708,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5505,7 +5741,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5538,7 +5774,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5571,7 +5807,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5604,7 +5840,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5637,7 +5873,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5670,7 +5906,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5703,7 +5939,7 @@
         <v>-521196.4710164794</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5736,7 +5972,7 @@
         <v>-521343.3248164793</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5769,7 +6005,7 @@
         <v>-521333.3248164793</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5802,7 +6038,7 @@
         <v>-553697.4082164794</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5835,7 +6071,7 @@
         <v>-559483.5314048851</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5868,7 +6104,7 @@
         <v>-649709.2878048851</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6308,6 +6544,6 @@
       <c r="M178" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>189031.3902</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1177,14 +1177,10 @@
         <v>174552.2986</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1217,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1256,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1325,10 +1309,14 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1361,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1385,19 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1426,19 @@
         <v>-127210.7933164794</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1818,19 @@
         <v>-190776.7774164795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1859,19 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1900,19 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +1941,19 @@
         <v>-168754.4809164795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1982,19 @@
         <v>-168754.4809164795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>27</v>
+      </c>
+      <c r="J45" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +2023,19 @@
         <v>-168754.4809164795</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>27</v>
+      </c>
+      <c r="J46" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2064,19 @@
         <v>-168202.4809164795</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>27</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2105,19 @@
         <v>-168202.4809164795</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2146,19 @@
         <v>-225500.6390164795</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2187,19 @@
         <v>-141110.5504164795</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2087,8 +2231,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2270,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2153,8 +2309,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2348,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2387,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2426,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2465,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2315,15 +2501,17 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2356,11 +2544,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2391,17 +2579,15 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2432,15 +2618,17 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2469,17 +2657,15 @@
         <v>60287.95478352057</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2510,19 +2696,19 @@
         <v>52157.61008352057</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>1.0137265917603</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2549,17 +2735,11 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2588,17 +2768,11 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2627,17 +2801,11 @@
         <v>47370.44068352057</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2666,17 +2834,11 @@
         <v>51232.51908352057</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2705,17 +2867,11 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2903,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2783,17 +2933,11 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2822,17 +2966,11 @@
         <v>6845.871683520574</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2861,17 +2999,11 @@
         <v>5215.485083520574</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2903,14 +3035,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2942,14 +3068,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2981,14 +3101,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3020,14 +3134,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +3167,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3098,14 +3200,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +3233,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3176,14 +3266,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3215,14 +3299,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3254,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3293,14 +3365,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3332,14 +3398,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3371,14 +3431,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +3464,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3449,14 +3497,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3488,14 +3530,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3527,14 +3563,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3566,14 +3596,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3605,14 +3629,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3644,14 +3662,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3683,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3728,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3761,14 +3761,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3794,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3827,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3875,17 +3857,11 @@
         <v>-69279.29771647943</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3914,17 +3890,11 @@
         <v>-67752.08251647942</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3953,19 +3923,13 @@
         <v>-95744.30671647942</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.9986764705882353</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -4025,7 +3989,7 @@
         <v>-95744.30671647942</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4058,7 +4022,7 @@
         <v>-95744.30671647942</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4289,7 +4253,7 @@
         <v>-105193.9740164794</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4322,7 +4286,7 @@
         <v>-105242.9740164794</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4718,7 +4682,7 @@
         <v>-140837.4533164794</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4817,7 +4781,7 @@
         <v>-114901.2776164794</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4850,7 +4814,7 @@
         <v>-115753.0212164794</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4982,7 +4946,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5048,7 +5012,7 @@
         <v>-31317.5330164794</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5081,7 +5045,7 @@
         <v>-32900.6095164794</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5114,7 +5078,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5147,7 +5111,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5180,7 +5144,7 @@
         <v>-31282.3119164794</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5213,7 +5177,7 @@
         <v>-29772.3119164794</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5246,7 +5210,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5279,7 +5243,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5312,7 +5276,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5345,7 +5309,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5378,7 +5342,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5411,7 +5375,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5444,7 +5408,7 @@
         <v>-285888.9602164794</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5477,7 +5441,7 @@
         <v>-339724.1811164794</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5510,7 +5474,7 @@
         <v>-388947.7054164794</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5543,7 +5507,7 @@
         <v>-338939.7055164794</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5576,7 +5540,7 @@
         <v>-338939.7055164794</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5609,7 +5573,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5642,7 +5606,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5708,7 +5672,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5972,7 +5936,7 @@
         <v>-521343.3248164793</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6005,7 +5969,7 @@
         <v>-521333.3248164793</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6038,7 +6002,7 @@
         <v>-553697.4082164794</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6071,7 +6035,7 @@
         <v>-559483.5314048851</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6104,7 +6068,7 @@
         <v>-649709.2878048851</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6533,10 +6497,14 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6544,6 +6512,6 @@
       <c r="M178" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -484,7 +484,7 @@
         <v>189031.3902</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -880,10 +880,14 @@
         <v>171029.964</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>26.6</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +917,19 @@
         <v>171029.964</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +958,19 @@
         <v>175076.3587</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1012,10 +1032,14 @@
         <v>175076.3587</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1045,11 +1069,19 @@
         <v>175076.3587</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1110,19 @@
         <v>164952.2986</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,10 +1151,14 @@
         <v>164952.2986</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26.6</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1144,11 +1188,19 @@
         <v>164952.2986</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1229,19 @@
         <v>174552.2986</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1369,10 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1349,14 +1405,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1385,19 +1435,11 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1426,19 +1468,11 @@
         <v>-127210.7933164794</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1504,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1509,14 +1537,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1570,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1603,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1636,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1669,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1702,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1735,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1768,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1818,19 +1798,11 @@
         <v>-190776.7774164795</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1859,19 +1831,11 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1900,19 +1864,11 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +1897,11 @@
         <v>-168754.4809164795</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1988,13 +1936,9 @@
         <v>27</v>
       </c>
       <c r="J45" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2029,11 +1973,11 @@
         <v>27</v>
       </c>
       <c r="J46" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2070,11 +2014,11 @@
         <v>27</v>
       </c>
       <c r="J47" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2111,13 +2055,9 @@
         <v>27.1</v>
       </c>
       <c r="J48" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2146,17 +2086,15 @@
         <v>-225500.6390164795</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2193,11 +2131,11 @@
         <v>27</v>
       </c>
       <c r="J50" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2228,17 +2166,15 @@
         <v>-141110.5504164795</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J51" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2267,15 +2203,17 @@
         <v>-81463.23851647947</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J52" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2306,15 +2244,17 @@
         <v>-212433.9778164795</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J53" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2345,11 +2285,13 @@
         <v>-212433.9778164795</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
       <c r="J54" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2384,11 +2326,13 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
       <c r="J55" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2423,11 +2367,13 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J56" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2462,11 +2408,13 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J57" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2501,11 +2449,13 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J58" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2540,11 +2490,13 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J59" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2579,11 +2531,13 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J60" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2618,11 +2572,13 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J61" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2657,11 +2613,13 @@
         <v>60287.95478352057</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J62" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2696,19 +2654,19 @@
         <v>52157.61008352057</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.0137265917603</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2735,11 +2693,17 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +2732,17 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2801,11 +2771,17 @@
         <v>47370.44068352057</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +2810,17 @@
         <v>51232.51908352057</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2867,11 +2849,17 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2888,19 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2933,11 +2929,17 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +2968,17 @@
         <v>6845.871683520574</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2999,11 +3007,17 @@
         <v>5215.485083520574</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +3046,19 @@
         <v>6282.485083520574</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +3087,19 @@
         <v>7177.485083520574</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3101,8 +3131,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3134,8 +3170,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3167,8 +3209,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3200,8 +3248,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3233,8 +3287,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3266,8 +3326,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3299,8 +3365,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3332,8 +3404,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3365,8 +3443,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3398,8 +3482,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3431,8 +3521,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3464,8 +3560,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3497,8 +3599,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3530,8 +3638,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3563,8 +3677,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3596,8 +3716,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3629,8 +3755,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3662,8 +3794,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3695,8 +3833,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3728,8 +3872,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3761,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3794,8 +3950,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3827,8 +3989,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3857,11 +4025,17 @@
         <v>-69279.29771647943</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3890,11 +4064,17 @@
         <v>-67752.08251647942</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3926,8 +4106,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3959,8 +4145,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4025,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4058,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4091,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4124,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4157,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +4418,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4223,8 +4457,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4256,8 +4496,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4535,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4322,8 +4574,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4355,8 +4613,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4388,8 +4652,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4421,8 +4691,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +4730,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4487,8 +4769,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4520,8 +4808,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4553,8 +4847,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4586,8 +4886,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4619,8 +4925,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4652,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4685,8 +5003,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4718,8 +5042,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4751,8 +5081,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4781,11 +5117,17 @@
         <v>-114901.2776164794</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4817,8 +5159,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4850,8 +5198,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4880,11 +5234,17 @@
         <v>-81945.3620164794</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +5273,17 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4949,8 +5315,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +5351,17 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5015,8 +5393,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5045,13 +5429,19 @@
         <v>-32900.6095164794</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>1.03190036900369</v>
       </c>
       <c r="M134" t="inlineStr"/>
     </row>
@@ -5078,7 +5468,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5111,7 +5501,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5144,7 +5534,7 @@
         <v>-31282.3119164794</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5177,7 +5567,7 @@
         <v>-29772.3119164794</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5210,7 +5600,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5243,7 +5633,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5276,7 +5666,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5309,7 +5699,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5342,7 +5732,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5375,7 +5765,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5408,7 +5798,7 @@
         <v>-285888.9602164794</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5441,7 +5831,7 @@
         <v>-339724.1811164794</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5474,7 +5864,7 @@
         <v>-388947.7054164794</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5639,7 +6029,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5705,7 +6095,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5738,7 +6128,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5771,7 +6161,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5804,7 +6194,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5837,7 +6227,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5870,7 +6260,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5903,7 +6293,7 @@
         <v>-521196.4710164794</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6266,10 +6656,14 @@
         <v>-779946.1080048851</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J171" t="n">
+        <v>27.4</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6299,11 +6693,19 @@
         <v>-743270.1081048851</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6332,11 +6734,19 @@
         <v>-699438.7024048851</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6365,11 +6775,19 @@
         <v>-699438.7024048851</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6398,11 +6816,19 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6431,11 +6857,19 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6898,19 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6503,9 +6945,13 @@
         <v>27.2</v>
       </c>
       <c r="J178" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-19 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>12132.8526</v>
       </c>
       <c r="G2" t="n">
-        <v>189031.3902</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1613.5243</v>
       </c>
       <c r="G3" t="n">
-        <v>189031.3902</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>7928.1842</v>
       </c>
       <c r="G4" t="n">
-        <v>189031.3902</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1304.4237</v>
       </c>
       <c r="G5" t="n">
-        <v>187726.9665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>736</v>
       </c>
       <c r="G6" t="n">
-        <v>187726.9665</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5965.235</v>
       </c>
       <c r="G7" t="n">
-        <v>187726.9665</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>21030.8025</v>
       </c>
       <c r="G8" t="n">
-        <v>187726.9665</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>400</v>
       </c>
       <c r="G9" t="n">
-        <v>187726.9665</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2734.6839</v>
       </c>
       <c r="G10" t="n">
-        <v>184992.2826</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2729.8394</v>
       </c>
       <c r="G11" t="n">
-        <v>182262.4432</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>9830.0519</v>
       </c>
       <c r="G12" t="n">
-        <v>172432.3913</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>9363.295</v>
       </c>
       <c r="G13" t="n">
-        <v>172432.3913</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1402.4273</v>
       </c>
       <c r="G14" t="n">
-        <v>171029.964</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,22 +833,15 @@
         <v>1699.6922</v>
       </c>
       <c r="G15" t="n">
-        <v>171029.964</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -914,26 +863,15 @@
         <v>1083.9864</v>
       </c>
       <c r="G16" t="n">
-        <v>171029.964</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -955,26 +893,15 @@
         <v>4046.3947</v>
       </c>
       <c r="G17" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -996,18 +923,15 @@
         <v>7812.2374</v>
       </c>
       <c r="G18" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1029,22 +953,15 @@
         <v>1619.3863</v>
       </c>
       <c r="G19" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1066,26 +983,15 @@
         <v>872.7807</v>
       </c>
       <c r="G20" t="n">
-        <v>175076.3587</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1107,26 +1013,15 @@
         <v>10124.0601</v>
       </c>
       <c r="G21" t="n">
-        <v>164952.2986</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,22 +1043,15 @@
         <v>11269.7467</v>
       </c>
       <c r="G22" t="n">
-        <v>164952.2986</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1185,26 +1073,15 @@
         <v>21310.9853</v>
       </c>
       <c r="G23" t="n">
-        <v>164952.2986</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1226,26 +1103,15 @@
         <v>9600</v>
       </c>
       <c r="G24" t="n">
-        <v>174552.2986</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,18 +1133,15 @@
         <v>3881.3229</v>
       </c>
       <c r="G25" t="n">
-        <v>170670.9757</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1300,18 +1163,15 @@
         <v>37.45318352059925</v>
       </c>
       <c r="G26" t="n">
-        <v>170708.4288835206</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1333,18 +1193,15 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>170708.4288835206</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1366,18 +1223,15 @@
         <v>611.1609999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>170708.4288835206</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1399,18 +1253,15 @@
         <v>7895.508</v>
       </c>
       <c r="G29" t="n">
-        <v>170708.4288835206</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1432,18 +1283,15 @@
         <v>0.0001</v>
       </c>
       <c r="G30" t="n">
-        <v>170708.4288835206</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1465,18 +1313,21 @@
         <v>297919.2222</v>
       </c>
       <c r="G31" t="n">
-        <v>-127210.7933164794</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,18 +1349,19 @@
         <v>38702.4641</v>
       </c>
       <c r="G32" t="n">
-        <v>-88508.32921647943</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1531,18 +1383,19 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-88498.32921647943</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1564,18 +1417,19 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>-88598.32921647943</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1597,18 +1451,19 @@
         <v>120</v>
       </c>
       <c r="G35" t="n">
-        <v>-88598.32921647943</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1630,18 +1485,19 @@
         <v>11802.2928</v>
       </c>
       <c r="G36" t="n">
-        <v>-100400.6220164794</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1663,18 +1519,19 @@
         <v>67673.51850000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-168074.1405164794</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1696,18 +1553,19 @@
         <v>547.8865</v>
       </c>
       <c r="G38" t="n">
-        <v>-167526.2540164794</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1729,18 +1587,19 @@
         <v>23245.5234</v>
       </c>
       <c r="G39" t="n">
-        <v>-190771.7774164795</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1762,18 +1621,19 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-190761.7774164795</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1795,18 +1655,19 @@
         <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>-190776.7774164795</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1828,18 +1689,19 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>-190765.7774164795</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1861,18 +1723,19 @@
         <v>55087.0925</v>
       </c>
       <c r="G43" t="n">
-        <v>-190765.7774164795</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1894,18 +1757,19 @@
         <v>22011.2965</v>
       </c>
       <c r="G44" t="n">
-        <v>-168754.4809164795</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1927,22 +1791,19 @@
         <v>876.7648</v>
       </c>
       <c r="G45" t="n">
-        <v>-168754.4809164795</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>27</v>
-      </c>
-      <c r="J45" t="n">
-        <v>27</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1964,26 +1825,19 @@
         <v>51659.9629</v>
       </c>
       <c r="G46" t="n">
-        <v>-168754.4809164795</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>27</v>
-      </c>
-      <c r="J46" t="n">
-        <v>27</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2005,26 +1859,19 @@
         <v>552</v>
       </c>
       <c r="G47" t="n">
-        <v>-168202.4809164795</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>27</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2046,22 +1893,19 @@
         <v>140.214</v>
       </c>
       <c r="G48" t="n">
-        <v>-168202.4809164795</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2083,24 +1927,19 @@
         <v>57298.1581</v>
       </c>
       <c r="G49" t="n">
-        <v>-225500.6390164795</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2122,26 +1961,19 @@
         <v>84390.0886</v>
       </c>
       <c r="G50" t="n">
-        <v>-141110.5504164795</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27</v>
-      </c>
-      <c r="J50" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,22 +1995,19 @@
         <v>50028.0277</v>
       </c>
       <c r="G51" t="n">
-        <v>-141110.5504164795</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2200,26 +2029,19 @@
         <v>59647.3119</v>
       </c>
       <c r="G52" t="n">
-        <v>-81463.23851647947</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2241,26 +2063,19 @@
         <v>130970.7393</v>
       </c>
       <c r="G53" t="n">
-        <v>-212433.9778164795</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,26 +2097,19 @@
         <v>2836.482</v>
       </c>
       <c r="G54" t="n">
-        <v>-212433.9778164795</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>27</v>
-      </c>
-      <c r="J54" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2323,26 +2131,19 @@
         <v>639.6257000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-211794.3521164795</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2364,26 +2165,19 @@
         <v>901.829</v>
       </c>
       <c r="G56" t="n">
-        <v>-211794.3521164795</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2405,26 +2199,19 @@
         <v>856.7375</v>
       </c>
       <c r="G57" t="n">
-        <v>-211794.3521164795</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2446,26 +2233,19 @@
         <v>2398.192</v>
       </c>
       <c r="G58" t="n">
-        <v>-211794.3521164795</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2487,26 +2267,19 @@
         <v>8915.441000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-211794.3521164795</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2528,26 +2301,19 @@
         <v>26624.1945</v>
       </c>
       <c r="G60" t="n">
-        <v>-211794.3521164795</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2569,26 +2335,19 @@
         <v>26905.0056</v>
       </c>
       <c r="G61" t="n">
-        <v>-211794.3521164795</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2610,26 +2369,19 @@
         <v>272082.3069</v>
       </c>
       <c r="G62" t="n">
-        <v>60287.95478352057</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2651,24 +2403,19 @@
         <v>8130.3447</v>
       </c>
       <c r="G63" t="n">
-        <v>52157.61008352057</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,24 +2437,19 @@
         <v>7899</v>
       </c>
       <c r="G64" t="n">
-        <v>60056.61008352057</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2729,24 +2471,19 @@
         <v>5250.4117</v>
       </c>
       <c r="G65" t="n">
-        <v>60056.61008352057</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2768,24 +2505,19 @@
         <v>12686.1694</v>
       </c>
       <c r="G66" t="n">
-        <v>47370.44068352057</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2807,24 +2539,19 @@
         <v>3862.0784</v>
       </c>
       <c r="G67" t="n">
-        <v>51232.51908352057</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2846,24 +2573,19 @@
         <v>27653.5244</v>
       </c>
       <c r="G68" t="n">
-        <v>23578.99468352057</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2885,26 +2607,19 @@
         <v>5402.5929</v>
       </c>
       <c r="G69" t="n">
-        <v>23578.99468352057</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,24 +2641,19 @@
         <v>9244.772300000001</v>
       </c>
       <c r="G70" t="n">
-        <v>23578.99468352057</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2965,24 +2675,19 @@
         <v>16733.123</v>
       </c>
       <c r="G71" t="n">
-        <v>6845.871683520574</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3004,24 +2709,19 @@
         <v>1630.3866</v>
       </c>
       <c r="G72" t="n">
-        <v>5215.485083520574</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3043,26 +2743,19 @@
         <v>1067</v>
       </c>
       <c r="G73" t="n">
-        <v>6282.485083520574</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>27</v>
-      </c>
-      <c r="J73" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3084,26 +2777,19 @@
         <v>895</v>
       </c>
       <c r="G74" t="n">
-        <v>7177.485083520574</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3125,24 +2811,19 @@
         <v>1593.774</v>
       </c>
       <c r="G75" t="n">
-        <v>5583.711083520575</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3164,24 +2845,19 @@
         <v>41333.7571</v>
       </c>
       <c r="G76" t="n">
-        <v>5583.711083520575</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3203,24 +2879,19 @@
         <v>8796.296</v>
       </c>
       <c r="G77" t="n">
-        <v>14380.00708352058</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3242,24 +2913,19 @@
         <v>50000</v>
       </c>
       <c r="G78" t="n">
-        <v>-35619.99291647942</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3281,24 +2947,19 @@
         <v>10661.267</v>
       </c>
       <c r="G79" t="n">
-        <v>-35619.99291647942</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3320,24 +2981,19 @@
         <v>12462.075</v>
       </c>
       <c r="G80" t="n">
-        <v>-48082.06791647943</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3359,24 +3015,19 @@
         <v>8796.296</v>
       </c>
       <c r="G81" t="n">
-        <v>-48082.06791647943</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3398,24 +3049,19 @@
         <v>110871.3919</v>
       </c>
       <c r="G82" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3437,24 +3083,19 @@
         <v>55347.1966</v>
       </c>
       <c r="G83" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3476,24 +3117,19 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3515,24 +3151,19 @@
         <v>14158.7065</v>
       </c>
       <c r="G85" t="n">
-        <v>62789.32398352057</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3554,24 +3185,19 @@
         <v>20719.8645</v>
       </c>
       <c r="G86" t="n">
-        <v>83509.18848352057</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3593,24 +3219,19 @@
         <v>1586.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>83509.18848352057</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3632,24 +3253,19 @@
         <v>14964.0402</v>
       </c>
       <c r="G88" t="n">
-        <v>68545.14828352057</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3671,24 +3287,19 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>68545.14828352057</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3710,24 +3321,19 @@
         <v>8385.535099999999</v>
       </c>
       <c r="G90" t="n">
-        <v>76930.68338352056</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3749,24 +3355,19 @@
         <v>9767</v>
       </c>
       <c r="G91" t="n">
-        <v>86697.68338352056</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3788,24 +3389,19 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>86687.68338352056</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3827,24 +3423,19 @@
         <v>64869.5929</v>
       </c>
       <c r="G93" t="n">
-        <v>151557.2762835206</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3866,24 +3457,19 @@
         <v>123724.0001</v>
       </c>
       <c r="G94" t="n">
-        <v>27833.27618352056</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3905,24 +3491,19 @@
         <v>1610.1071</v>
       </c>
       <c r="G95" t="n">
-        <v>29443.38328352056</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3944,24 +3525,19 @@
         <v>34253.0818</v>
       </c>
       <c r="G96" t="n">
-        <v>-4809.698516479439</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3983,24 +3559,19 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-4799.698516479439</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4022,24 +3593,19 @@
         <v>64479.5992</v>
       </c>
       <c r="G98" t="n">
-        <v>-69279.29771647943</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4061,24 +3627,19 @@
         <v>1527.2152</v>
       </c>
       <c r="G99" t="n">
-        <v>-67752.08251647942</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4100,24 +3661,19 @@
         <v>27992.2242</v>
       </c>
       <c r="G100" t="n">
-        <v>-95744.30671647942</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4139,24 +3695,19 @@
         <v>35000</v>
       </c>
       <c r="G101" t="n">
-        <v>-95744.30671647942</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4178,24 +3729,19 @@
         <v>29829.4445</v>
       </c>
       <c r="G102" t="n">
-        <v>-95744.30671647942</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4217,24 +3763,19 @@
         <v>11718.6976</v>
       </c>
       <c r="G103" t="n">
-        <v>-95744.30671647942</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,24 +3797,19 @@
         <v>1872.4149</v>
       </c>
       <c r="G104" t="n">
-        <v>-95744.30671647942</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4295,24 +3831,19 @@
         <v>34323.1029</v>
       </c>
       <c r="G105" t="n">
-        <v>-95744.30671647942</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4334,24 +3865,19 @@
         <v>12700</v>
       </c>
       <c r="G106" t="n">
-        <v>-108444.3067164794</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4373,24 +3899,19 @@
         <v>4007.557</v>
       </c>
       <c r="G107" t="n">
-        <v>-108444.3067164794</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4412,24 +3933,19 @@
         <v>5809.6609</v>
       </c>
       <c r="G108" t="n">
-        <v>-108444.3067164794</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4451,24 +3967,19 @@
         <v>160</v>
       </c>
       <c r="G109" t="n">
-        <v>-108284.3067164794</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4490,24 +4001,19 @@
         <v>3090.3327</v>
       </c>
       <c r="G110" t="n">
-        <v>-105193.9740164794</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4529,24 +4035,19 @@
         <v>49</v>
       </c>
       <c r="G111" t="n">
-        <v>-105242.9740164794</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4568,24 +4069,19 @@
         <v>78074.3547</v>
       </c>
       <c r="G112" t="n">
-        <v>-183317.3287164794</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4607,24 +4103,19 @@
         <v>66983.51459999999</v>
       </c>
       <c r="G113" t="n">
-        <v>-116333.8141164794</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4646,24 +4137,19 @@
         <v>29995.9706</v>
       </c>
       <c r="G114" t="n">
-        <v>-116333.8141164794</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4685,24 +4171,19 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-116323.8141164794</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4724,24 +4205,19 @@
         <v>19220.4029</v>
       </c>
       <c r="G116" t="n">
-        <v>-135544.2170164794</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4763,24 +4239,19 @@
         <v>12265.7554</v>
       </c>
       <c r="G117" t="n">
-        <v>-147809.9724164794</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4802,24 +4273,19 @@
         <v>36200</v>
       </c>
       <c r="G118" t="n">
-        <v>-147809.9724164794</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4841,24 +4307,19 @@
         <v>905.9773</v>
       </c>
       <c r="G119" t="n">
-        <v>-146903.9951164794</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4880,24 +4341,19 @@
         <v>631.3891</v>
       </c>
       <c r="G120" t="n">
-        <v>-147535.3842164794</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4919,24 +4375,19 @@
         <v>4605.9773</v>
       </c>
       <c r="G121" t="n">
-        <v>-142929.4069164794</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4958,24 +4409,19 @@
         <v>2091.9536</v>
       </c>
       <c r="G122" t="n">
-        <v>-140837.4533164794</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4997,24 +4443,19 @@
         <v>7029.8157</v>
       </c>
       <c r="G123" t="n">
-        <v>-140837.4533164794</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5036,24 +4477,19 @@
         <v>25936.1757</v>
       </c>
       <c r="G124" t="n">
-        <v>-114901.2776164794</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5075,24 +4511,19 @@
         <v>8563.000099999999</v>
       </c>
       <c r="G125" t="n">
-        <v>-114901.2776164794</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5114,24 +4545,19 @@
         <v>27815.1617</v>
       </c>
       <c r="G126" t="n">
-        <v>-114901.2776164794</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5153,24 +4579,19 @@
         <v>851.7436</v>
       </c>
       <c r="G127" t="n">
-        <v>-115753.0212164794</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5192,24 +4613,19 @@
         <v>39714.3573</v>
       </c>
       <c r="G128" t="n">
-        <v>-115753.0212164794</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5231,24 +4647,19 @@
         <v>33807.6592</v>
       </c>
       <c r="G129" t="n">
-        <v>-81945.3620164794</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5270,24 +4681,19 @@
         <v>50617.829</v>
       </c>
       <c r="G130" t="n">
-        <v>-31327.5330164794</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5309,24 +4715,19 @@
         <v>84136.357</v>
       </c>
       <c r="G131" t="n">
-        <v>-31327.5330164794</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5348,24 +4749,19 @@
         <v>68154.5673</v>
       </c>
       <c r="G132" t="n">
-        <v>-31327.5330164794</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5387,24 +4783,19 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-31317.5330164794</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5426,24 +4817,19 @@
         <v>1583.0765</v>
       </c>
       <c r="G134" t="n">
-        <v>-32900.6095164794</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1.03190036900369</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5465,18 +4851,19 @@
         <v>981.7024</v>
       </c>
       <c r="G135" t="n">
-        <v>-33882.3119164794</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5498,18 +4885,17 @@
         <v>16388.9445</v>
       </c>
       <c r="G136" t="n">
-        <v>-33882.3119164794</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5531,18 +4917,15 @@
         <v>2600</v>
       </c>
       <c r="G137" t="n">
-        <v>-31282.3119164794</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5564,18 +4947,15 @@
         <v>1510</v>
       </c>
       <c r="G138" t="n">
-        <v>-29772.3119164794</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5597,18 +4977,15 @@
         <v>249828.441</v>
       </c>
       <c r="G139" t="n">
-        <v>-279600.7529164794</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5630,18 +5007,15 @@
         <v>67882.13800000001</v>
       </c>
       <c r="G140" t="n">
-        <v>-279600.7529164794</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5663,18 +5037,15 @@
         <v>25061.9586</v>
       </c>
       <c r="G141" t="n">
-        <v>-254538.7943164794</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5696,18 +5067,15 @@
         <v>697</v>
       </c>
       <c r="G142" t="n">
-        <v>-254538.7943164794</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5729,18 +5097,15 @@
         <v>51370.1659</v>
       </c>
       <c r="G143" t="n">
-        <v>-305908.9602164794</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5762,18 +5127,15 @@
         <v>17113.3798</v>
       </c>
       <c r="G144" t="n">
-        <v>-305908.9602164794</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5795,18 +5157,15 @@
         <v>20020</v>
       </c>
       <c r="G145" t="n">
-        <v>-285888.9602164794</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5828,18 +5187,15 @@
         <v>53835.2209</v>
       </c>
       <c r="G146" t="n">
-        <v>-339724.1811164794</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5861,18 +5217,15 @@
         <v>49223.5243</v>
       </c>
       <c r="G147" t="n">
-        <v>-388947.7054164794</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5894,18 +5247,15 @@
         <v>50007.9999</v>
       </c>
       <c r="G148" t="n">
-        <v>-338939.7055164794</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5927,18 +5277,15 @@
         <v>26251.2972</v>
       </c>
       <c r="G149" t="n">
-        <v>-338939.7055164794</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5960,18 +5307,15 @@
         <v>146587.964</v>
       </c>
       <c r="G150" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5993,18 +5337,15 @@
         <v>18115.942</v>
       </c>
       <c r="G151" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6026,18 +5367,15 @@
         <v>18115.942</v>
       </c>
       <c r="G152" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6059,18 +5397,15 @@
         <v>39999.579</v>
       </c>
       <c r="G153" t="n">
-        <v>-485527.6695164794</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6092,18 +5427,15 @@
         <v>4096.1986</v>
       </c>
       <c r="G154" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6125,18 +5457,15 @@
         <v>73536.3729</v>
       </c>
       <c r="G155" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6158,18 +5487,15 @@
         <v>54642</v>
       </c>
       <c r="G156" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6191,18 +5517,15 @@
         <v>63263.7688</v>
       </c>
       <c r="G157" t="n">
-        <v>-481431.4709164794</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6224,18 +5547,15 @@
         <v>39775.0001</v>
       </c>
       <c r="G158" t="n">
-        <v>-521206.4710164794</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6257,18 +5577,15 @@
         <v>36241.8841</v>
       </c>
       <c r="G159" t="n">
-        <v>-521206.4710164794</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6290,18 +5607,15 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>-521196.4710164794</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6323,18 +5637,15 @@
         <v>146.8538</v>
       </c>
       <c r="G161" t="n">
-        <v>-521343.3248164793</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6356,18 +5667,15 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>-521333.3248164793</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6389,18 +5697,15 @@
         <v>32364.0834</v>
       </c>
       <c r="G163" t="n">
-        <v>-553697.4082164794</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6422,18 +5727,15 @@
         <v>5786.123188405797</v>
       </c>
       <c r="G164" t="n">
-        <v>-559483.5314048851</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6455,18 +5757,15 @@
         <v>90225.7564</v>
       </c>
       <c r="G165" t="n">
-        <v>-649709.2878048851</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6488,18 +5787,15 @@
         <v>9534.2829</v>
       </c>
       <c r="G166" t="n">
-        <v>-640175.0049048851</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6521,18 +5817,15 @@
         <v>1725.3055</v>
       </c>
       <c r="G167" t="n">
-        <v>-641900.3104048851</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6554,18 +5847,15 @@
         <v>20</v>
       </c>
       <c r="G168" t="n">
-        <v>-641880.3104048851</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6587,18 +5877,15 @@
         <v>141254.2882</v>
       </c>
       <c r="G169" t="n">
-        <v>-783134.5986048852</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6620,18 +5907,15 @@
         <v>3878</v>
       </c>
       <c r="G170" t="n">
-        <v>-779256.5986048852</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6653,22 +5937,15 @@
         <v>689.5094</v>
       </c>
       <c r="G171" t="n">
-        <v>-779946.1080048851</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J171" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6690,26 +5967,15 @@
         <v>36675.9999</v>
       </c>
       <c r="G172" t="n">
-        <v>-743270.1081048851</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J172" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6731,26 +5997,15 @@
         <v>43831.4057</v>
       </c>
       <c r="G173" t="n">
-        <v>-699438.7024048851</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J173" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6772,26 +6027,15 @@
         <v>16500</v>
       </c>
       <c r="G174" t="n">
-        <v>-699438.7024048851</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J174" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6813,26 +6057,15 @@
         <v>64745.324</v>
       </c>
       <c r="G175" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6854,26 +6087,15 @@
         <v>127773.7258</v>
       </c>
       <c r="G176" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J176" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6895,26 +6117,15 @@
         <v>36764.6691</v>
       </c>
       <c r="G177" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J177" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6936,26 +6147,15 @@
         <v>58031.5064</v>
       </c>
       <c r="G178" t="n">
-        <v>-764184.0264048851</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J178" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
